--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.668</v>
+        <v>-1.675</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.626</v>
+        <v>28.663</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>42.82341013709554</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42.82351811378049</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42.82352923447196</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42.82038370147514</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42.82039649135802</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>42.82040341686782</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42.82322684014378</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>42.82317521292145</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.82321844209989</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.81153534146517</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.81154775877124</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.81154935558901</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42.81074656995013</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.8108311520765</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.81085642642995</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>42.80762327936654</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>42.80829164941541</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.80825114997212</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>42.80379187106262</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42.80383822192547</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>42.80360418495017</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42.80831301896187</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>42.80826095397826</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.80843725504172</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.78827068127735</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.78823144757502</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42.78819851600209</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>42.78704119081175</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.78685223705416</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.78653593393806</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.80403730092699</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.80429352972262</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.80454920777407</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.79972414833362</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.79946288626853</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42.79956368449965</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.80406658002643</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.80409804048458</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.80375116494207</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.78030684941976</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.7801621298885</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>42.78011298956406</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.77900987946078</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.77851473294856</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.77804285782626</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.82406238758931</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.81792608649157</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.81773470251581</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>42.81449895456792</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.81426727334283</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.81418934605342</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>42.81800947387131</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.81754500057754</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.81751035636122</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.80327266932886</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.80359163909809</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.80353236330748</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42.80256103482994</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.80274042442051</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.8025931090158</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.80083782667647</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.79953213142861</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.79985179685237</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.79566135657299</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.79553709567742</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.79543067552179</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.80166753483302</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.80043163168512</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.80036267116041</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.78356976322101</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>42.78606861893122</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>42.7859552444002</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>42.78486457395751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.7843835900926</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>42.78424998020156</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>42.80065458043024</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.79744158082352</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.79796955281518</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.79601431889498</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.79336176205747</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.79282736326461</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>42.80104151269383</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.79834754628676</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.79828211673613</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.77509683530034</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.77771726843657</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>42.77756347349418</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42.77688951714139</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.7756161952844</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.77523284235932</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.82348550320932</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.82493060450745</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.82554816546724</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.82402366954234</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.82352542482391</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>42.82319686482075</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>42.82494612882476</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.82435873684798</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.82294504272645</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42.81138757298726</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.8115616620487</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.81145069813605</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>42.81061658096648</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.81082394216557</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>42.80989254307013</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>42.80496451727678</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.80609949911069</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.80683781028886</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.80324433381976</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.80250827940566</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.80225278039916</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.80598763176105</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.80528312785779</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.79963992613481</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.77801353464893</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.77826814583317</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.77834005931039</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.7759720546193</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.77649751942792</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.77659150606991</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.79099581060223</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.79223888438812</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.79228852223787</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.78605159816676</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.78719288762164</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.78719977383354</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.79252010276203</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.7931148210598</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>42.79304180049161</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.76850316058365</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.76887647930365</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.76889450978573</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>42.76607387085895</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.76694613136149</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>42.7669070158244</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.82305973318191</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.82321879954311</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.8232529317388</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.82016125912909</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>42.82020547286331</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>42.82024347130579</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.82302058378413</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>42.82297433789539</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.82304007235644</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.81134318665653</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.81137706806954</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.81139400542927</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.81043576575574</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.81059074560682</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.81065342098889</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42.80754760510839</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.80848219135157</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.80835747023435</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>42.8039941825698</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>42.80413906160005</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.80367856007732</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.80852617885314</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>42.80842121130785</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.80872634841216</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.78938038712736</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.78940794335649</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.78930207417698</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.78815760222403</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.78807879155237</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.78751389764734</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.80419487691462</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.80446237767372</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.80419968701221</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.79975058641443</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.79929629909428</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.7995382542744</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.80361527545746</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.80359827386069</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.80464790523934</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.78222041501373</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.78211779763419</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>42.78197810921799</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.78100098955844</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.78050265835519</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.77963826194082</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.82612300101133</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>42.82466594489095</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.824534090107</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>42.8221249580557</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.82200548519504</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>42.82192300704845</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>42.82469518945099</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.82447796126463</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.82442073289132</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.81372807918616</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.81393878635443</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.81389773035087</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>42.81317501746599</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.81326234778105</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.81319534296706</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.81037887620575</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.80990213979548</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>42.80998043401008</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>42.80616112266799</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.8060370502056</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.80597144362173</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>42.81072394780713</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.81009605235955</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.81005119993018</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.79220005493274</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.79305987087005</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>42.79293592661173</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.7919329014315</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.79184077955559</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.79156743946541</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42.80628550062281</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.80533922762326</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.80560308886514</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.80159284931301</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.80054415756235</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.80024763598657</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.80604101060474</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.8052030760842</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.80524832830904</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.78447103003068</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.78539610771725</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.78528941329638</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>42.78437600663561</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.78379426871744</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>42.78350108441381</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.80820821323439</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.81075057044721</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.81168891481438</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>42.80919764349549</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>42.80835931014996</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.8078529750663</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>42.81072774433604</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.80978495645596</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.80749042414971</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.78790271213656</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.78819535158412</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.78802881127336</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.78659705719248</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42.78693252599253</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.78539444911128</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.77757074009817</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.77936709134226</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.78038977577196</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.77450780149084</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.77329826363002</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.77290711848777</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.77901913389751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.77791049342928</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.76949133621499</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>42.73404379695432</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>42.73449250512429</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>42.73463854341206</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>42.73063488311104</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>42.73150864121398</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>42.73173886103709</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.75537573962823</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.75759038282634</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>42.75759603847174</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.74736346659009</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.7494271372459</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.74936694472619</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.75804638443176</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.75912904091615</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.75892036292738</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.71875115522583</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.71945216443784</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.71946075976711</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.71461959267823</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.71624423353408</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>42.71609174232989</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>42.7982702698291</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>42.7988011722388</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>42.79878575569441</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.79321576021432</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.79337081573565</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.7933163329885</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>42.79894493000835</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.79888616285534</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>42.79890080959078</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>42.77556270286254</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.77567335428495</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.77566281937831</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>42.77357157586574</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.77411593103566</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.77410740534331</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>42.77064792080136</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.77328843837291</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.77333378259512</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>42.76751440007196</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.76783061197325</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.7670877639751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>42.77528296196176</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.77512656909485</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.77652419217947</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.74151237208341</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.7415432941015</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>42.74145764521803</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.73921216779285</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.73875927233908</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>42.73694968309803</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.768133924015</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.7690863192221</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.76955292638832</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.76314065594156</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.76144249632475</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.7617676445668</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.7679508069934</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.76771013164866</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>42.77073301770805</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.7300705290488</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.72966693444992</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.72946135416561</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>42.72814793067963</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>42.72632473550563</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>42.72351140206939</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.8210033702897</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.81817193889918</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.8179965284141</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.81485193040198</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.81466530851884</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>42.81456278071505</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.81826988531824</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.817915851695</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.81784993608417</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.80373577828056</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.80406932560725</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.8040152634274</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.80303937527502</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.80318800702839</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.80308599076273</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.80003097122366</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.79914187391445</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.79931269994948</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>42.79462888657082</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.79446890480822</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>42.7943748304724</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.80065229879253</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.79967832103731</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.79960697691862</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.77525865983364</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.77676563302821</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.77658599147053</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>42.77532792749228</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.77507628530432</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>42.77469381330592</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>42.79445205740773</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.79246249084201</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.79285790128026</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>42.78803258430747</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>42.78616222959035</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.78567774079374</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.79399932275063</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.79240670391876</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.7924110156312</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.76440800283653</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.76594746046007</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.76578590312419</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>42.76468341726166</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.76366473573415</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.76323028023235</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>42.81479451754506</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.81716493112059</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.81787646234951</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>42.81590928375102</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.81516392210258</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.81471551413382</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>42.81701146182959</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.81617298495546</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.81413812114401</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.797949925192</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>42.79820936861049</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.79805600101091</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>42.79687965216355</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>42.79717270366937</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.79582463912492</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>42.789404051151</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.79104509212994</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>42.79181097508467</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>42.78703258303503</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.78595246126064</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.78561468423808</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>42.79061963025164</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.78963127910978</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>42.78229539586489</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.75287111112065</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.75325477902464</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>42.75337721599682</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>42.75000547750675</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.75076382385016</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.75094726922475</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.77036040789649</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.77226125828463</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.77227906284633</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.76377712484646</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.76556575275173</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.76552333623393</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.77268255330135</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.77362427385164</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.7734553904052</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.74010825488765</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.74071120744172</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>42.74071821169807</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.73663369277528</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.73803677043923</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>42.737906945654</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.81002001143862</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>42.81044253243315</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.81044682612568</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>42.80619150075317</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>42.80633421500572</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>42.80630442624915</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.81051815750391</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>42.81049809781032</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.81052717417458</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.79293281214745</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.79302002018815</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.79301667426546</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>42.79142734152507</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.79185306602632</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>42.79185680109779</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.7894423631822</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.79148193218199</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.79142184268359</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.78720213048403</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.78749984518741</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.78683338303862</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.79438859130023</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.79413924414952</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>42.79399520858756</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>42.76767389702727</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>42.76770222403653</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.76761687869114</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>42.76594793332292</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>42.76429639893858</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.76414500731688</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>42.78753140841538</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.78869623784682</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.78872466360999</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.78402852591866</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.78237348022409</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.78292877043939</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.78754784080951</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.78890718779971</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>42.78936621958729</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>42.75842078272739</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.75813519392244</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.75795438216468</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>42.75696717762234</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>42.75395549174319</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>42.75342074252951</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>42.81449115835245</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.81495643653282</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.81477387972956</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.81095140370144</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>42.81109406697977</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.8109355258208</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>42.81466051546297</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.81464589100683</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.8145273659312</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>42.7992410135145</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.79932682996582</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.79925151894859</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.79804571881351</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>42.79836157451231</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.79817955475564</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.79346357948997</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.79427357017668</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.79458725779019</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>42.78858732740153</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.78970089393235</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.78972459716184</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>42.79482254545002</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.79521701677304</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.79870069182491</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.78010579406945</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.78032809900724</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>42.78021250572314</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.7780204314787</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.77834140575669</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.77817626533174</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.7893704957319</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.79147678932165</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.79216035904633</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.78770379001964</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.78686509181527</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.78604218324971</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.79374751083732</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.79245136132037</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.79220185982375</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.77099320804579</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>42.7709465341927</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>42.77073610834503</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.76890438082518</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.76844448510357</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>42.76792007821769</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>42.82419671183447</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.82561042984799</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>42.82562738734001</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>42.82415050750311</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>42.82334787768576</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>42.82329940955833</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>42.82499891911785</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.82292523569739</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.82293702478081</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.81134127914626</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.81152243530454</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.81140893583073</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.81057479832586</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.81010549081322</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>42.80983117047805</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.80510074787729</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.80688032643364</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>42.80687770313438</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.80335307752356</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.80226306982519</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>42.80233487261263</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>42.8060225500784</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.80059474570224</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.80135418829315</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.77906677836916</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.77924666397865</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.77942525578813</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.77716932728988</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.77748637561996</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.77779106622918</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.79200778049054</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.79323394520829</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.7957793266815</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>42.78752657484369</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.7885413475005</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.78850555919277</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.79376377925501</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.79422995842923</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.79513057516962</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.76968350086937</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.7699867287308</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.77012290562743</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>42.76743915417507</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>42.76809919115572</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>42.77403273720724</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>42.81431608461802</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>42.81469675441519</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>42.81535651471467</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>42.81104333097137</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>42.81098916938165</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>42.81096810534736</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>42.81488243394262</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>42.81469843944078</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>42.81497414592337</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>42.79907773993145</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>42.79914972503827</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>42.79922113972276</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>42.79777849976666</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>42.79813193405995</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>42.81156128596701</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>42.79741262831648</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>42.79909356148347</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>42.80260079311623</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>42.79581514631317</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.79583936181683</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.79522176730713</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>42.79983578731823</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>42.79948527057344</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>42.79927430206425</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>42.77640334191892</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.77647809605855</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.77640148571005</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>42.77186918561405</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>42.77258434802855</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>42.77244715356815</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.79671068400944</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>42.7956081762498</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>42.79565220033764</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.79144784784834</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.79027600126217</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>42.79060996737467</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>42.79564613514415</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.79451841572866</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>42.79474060176457</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.76845756491442</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.76828849389407</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.76810023939761</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>42.76317212568323</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.76356475624117</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>42.75877417406335</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>42.81733412559274</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>42.81759602837916</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>42.81769612803176</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.81394746478681</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>42.81392483238997</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.81388745365504</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>42.81742865489788</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.8173141801517</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.81741643717027</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.80301373967545</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.80303747919722</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.80304232471462</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.8019764081878</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.80213560004554</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.80680553859715</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.79804999595426</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.79857859950044</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>42.80030989922177</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>42.79337748390731</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>42.79408590345324</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>42.79404520227245</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.79907797373398</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>42.80088402235918</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.80226675844978</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.78013352171594</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>42.7800900380452</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.78019192162885</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>42.77858832636795</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.77832368594412</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>42.78080454875563</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.79254741217664</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.79375779593997</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.79650141136047</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.78914538279362</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.7883797542339</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.78802382175066</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.79499986874877</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.79430758008548</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.79615624978353</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.77008577757671</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>42.7698320826451</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>42.76997998762346</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>42.76844416887567</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>42.76758476949629</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>42.76337996059681</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>42.82701880121528</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.82663956817633</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.82664506710452</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.82512956201446</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>42.82472296557516</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.82147604907948</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>42.82404819632793</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.82399614074134</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>42.82417793190778</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.81295610286741</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.81312235880217</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.81226958083399</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>42.81128788053195</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.81179027107066</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.81256539839475</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>42.80937333473445</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.80870731132444</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.80840059210008</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.80518537217078</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.80429682330573</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.79723460826938</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.8039556082627</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.80367470229199</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.8035185790164</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.78221580046247</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.78237646960006</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.78237386153798</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.77954240625274</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.78035375670412</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.7803514004983</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.79712666953771</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.79760286182157</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.79765256609406</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>42.78912563181255</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.79022033530437</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.79022142112279</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.79807085993428</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.7975780527963</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.79751337497185</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.77320205863608</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.7734673635966</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>42.77343600006881</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.77100294767071</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.77096224003491</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.77064072029518</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.82539611360623</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.82535835497823</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.82537882253883</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.82265775357802</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.8226501552804</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.82266290688334</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.82527915165394</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.82518409607054</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.82518633440981</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.81475376365292</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.81477422543879</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.81478236401407</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.81771035868115</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.81804330015331</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.81796846187002</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.812905242886</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.81295494203441</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>42.81301830676196</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>42.80848992245078</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.80856467886478</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.80851507988708</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>42.81266027554295</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.81257802615146</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.81263142859044</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.79628726807895</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.79632221447174</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.79601779571622</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.79479047279737</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.79491143243975</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.79516341252148</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.80909607052665</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.80863922645009</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.80852736862496</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.80440630031199</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.80411824424088</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.80540173134811</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.80994636618803</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.80969513676431</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.80993179158381</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.79239944380932</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.79237098060702</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.79187125622721</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.79062321176023</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.78580789592831</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>42.78571053786155</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>42.83387503721841</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>42.83385664895631</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>42.83386088196949</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>42.83232114331992</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>42.83227875317296</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>42.83232443200231</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.83380904808548</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.83378351053872</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.83378224351879</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.827692622314</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.8277063091731</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.82770478662966</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.827261021154</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>42.82819179795594</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.82817133687917</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>42.82557180557627</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.82574754684339</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.82576043574669</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>42.82312366818116</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.82316691851413</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>42.82318270129009</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>42.82645371978993</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.82639781492234</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>42.82638771647905</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.81733129629466</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.81735600132598</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>42.81734706496791</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.81666992632218</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.81674863192778</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.81676055559708</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.82487342909057</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.82467505484004</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.82460353342817</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.82225041089581</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.82211022625846</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.82202507635004</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.82431210387369</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.82427508143618</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.82417797032085</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.81461504575369</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.81461249941772</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.81469587317184</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.81438494595558</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.81429040093582</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>42.81425654645835</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.82583276134694</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>42.82566518790325</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>42.82567964333327</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.82271371849529</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>42.82277112796854</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.82267848236825</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.82512796459024</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.82511402778024</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.82517698669757</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.81476178518697</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.81487255900511</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>42.8148373114547</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.8145349243987</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.81458115175536</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.81452213229802</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.81021491394559</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>42.8099923536908</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>42.81001288380281</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.80354069191915</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>42.80397664826031</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.8039073845861</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.80832793848546</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>42.8081558724651</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.80814099020176</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.78977803274992</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.78990999077212</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.78992696862297</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>42.78839666267463</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.78868226605709</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>42.78860669897899</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.80358527632919</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.80329782385506</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.80326657186122</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.79733730203927</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.79812819293507</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.79802711182505</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.80308290077635</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.80296069861608</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.80291653344815</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.78158990598698</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.78238017213356</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.78233213981879</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.78097658168944</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.78074921312276</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.78059616633097</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.8229566483425</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.82297220915832</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.82302959362814</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>42.81995618939213</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>42.81983002310968</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.81982826431849</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.82287359250429</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>42.82273852258762</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.82272112817696</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>42.81094323811145</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>42.81658485373314</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>42.81650369092029</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>42.81568596409323</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.81599315252574</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.81582744842599</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.80967870870346</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.80934802463489</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.8093590454702</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.80402322951435</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.80375491209814</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.80350781664034</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>42.80873112571339</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.80860676629703</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.80859063557714</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.78903924574375</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.78912484179134</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.7890457138751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.78849029796525</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.78828612484768</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.78809196731761</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.80519384215676</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.80462434373159</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.80465893919865</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.80047853307088</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.79966434438983</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.79934673290659</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.80541426754336</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.80505744225812</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.80524258939961</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.78352943382367</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.78355778113551</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.78186941364702</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>42.78006689205255</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.78049997349842</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.78037147301355</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>42.83395050687042</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.8339005652222</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.83390911114177</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>42.83237078292864</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.83232921632589</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.83238218619503</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.83385490279671</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.83382782905999</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.83382498616132</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.82776904846909</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.82777288289855</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.82866447930856</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.82820840297915</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.82828951854783</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>42.82826850946581</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>42.825879148097</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>42.82584732403166</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>42.82582588104085</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>42.8232308182862</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.82443022326751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>42.82439207177398</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.82655441816716</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.8265192372677</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.82641669337627</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.81758964367749</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.8176133672021</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.81757387552103</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>42.81681737525771</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.81692425940809</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.81693210327207</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.8250413514897</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.82483154617034</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.82478081669579</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.82249481141475</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.82234478780243</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.82223407716694</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.82447668590343</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.82443031634867</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.82433446449119</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.81496481764035</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>42.81496137011259</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>42.81504919399591</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.81476399307557</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.81466807344901</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.81462890095708</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.82472144039772</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.82441893159129</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>42.82447173453696</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.82043440820643</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>42.82057087022311</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.82032280485408</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>42.82314645925459</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>42.82309553545511</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.82314989845397</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.81147570596865</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.81167720114993</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.81158794532782</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>42.81157171274201</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.81163672644662</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>42.81146669568686</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.80716678488429</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.80674689649514</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>42.80680250512091</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.7987928960094</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>42.79992444977024</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.79980798523934</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>42.80464672336988</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.8042609335706</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.80427460807296</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.78396606940876</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.78358318383953</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>42.78358613715879</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.78172296562852</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.78221512928287</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.78207814756649</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>42.7988681363961</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.79843475513225</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>42.79844222581529</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>42.79151562405469</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.79304344036852</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>42.79293103088686</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>42.79856403840935</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.79818920931734</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.79816007741509</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>42.77439053526415</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.77670259543289</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>42.77654804717384</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.77517032087535</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>42.77482316188603</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>42.77442529712524</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>42.82162224555979</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.82177096854247</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.82185350011699</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>42.81855310508067</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.81835044769273</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.81834330520898</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>42.82161284286199</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.82146595420695</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.8214459573574</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>42.80893894207846</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.81668747657736</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.81658706388285</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.81578918862181</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>42.8161186304114</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>42.8159065653721</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.80883597592846</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.80832173633335</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>42.80826108907075</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.80190556970453</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.80165051075191</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.80131936863519</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.80706093896111</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.80699115336085</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.80684325314301</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.78547405164022</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.78555089226751</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>42.78549418814643</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.78513749814309</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.78481102780397</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.78460594842105</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>42.80400946905463</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.80342158544964</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.8034469126972</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.7974410411526</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.79659372956039</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.79619859770055</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>42.80313478826575</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.80282301379622</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.80291226453336</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.77854588197545</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>42.77853322399817</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>42.78030316642622</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>42.77840688851449</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>42.77887409225436</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>42.77879350516714</v>
+        <v>42.84563482914714</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.136</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.159</v>
+        <v>22.413</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.675</v>
+        <v>-1.077</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.663</v>
+        <v>25.256</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.278</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.283</v>
+        <v>20.889</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>42.84563482914714</v>
+        <v>-15.30158781317191</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42.84563482914714</v>
+        <v>29.50419764529029</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42.84563482914714</v>
+        <v>38.2892310751176</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42.84563482914714</v>
+        <v>9.169806640590949</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42.84563482914714</v>
+        <v>21.50822119044626</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>42.84563482914714</v>
+        <v>26.99917799380155</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42.84563482914714</v>
+        <v>23.79364524294415</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>42.84563482914714</v>
+        <v>28.35723802432922</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.84563482914714</v>
+        <v>31.99470888932701</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.84563482914714</v>
+        <v>39.1680971678323</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.84563482914714</v>
+        <v>45.67072018704933</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.84563482914714</v>
+        <v>49.57711029714297</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42.84563482914714</v>
+        <v>20.97265592768413</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.84563482914714</v>
+        <v>40.89034366191386</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.84563482914714</v>
+        <v>47.19171046799143</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>42.84563482914714</v>
+        <v>-9.410872488409083</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>42.84563482914714</v>
+        <v>35.39942527433205</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.84563482914714</v>
+        <v>44.18657385730781</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>42.84563482914714</v>
+        <v>15.05936649403175</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42.84563482914714</v>
+        <v>27.40074483711778</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>42.84563482914714</v>
+        <v>32.89304485185058</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42.84563482914714</v>
+        <v>29.68727851689796</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>42.84563482914714</v>
+        <v>34.2530223565479</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.84563482914714</v>
+        <v>37.89155842004898</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.84563482914714</v>
+        <v>45.06513988849493</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.84563482914714</v>
+        <v>51.56888396406585</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42.84563482914714</v>
+        <v>55.47624754636588</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>42.84563482914714</v>
+        <v>26.86874431953932</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.84563482914714</v>
+        <v>46.78979251811991</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.84563482914714</v>
+        <v>53.092786785309</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.84563482914714</v>
+        <v>4.590098607802886</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.84563482914714</v>
+        <v>49.40029380122992</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.84563482914714</v>
+        <v>58.18740473954661</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.84563482914714</v>
+        <v>29.06370736709626</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.84563482914714</v>
+        <v>41.40549830939933</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42.84563482914714</v>
+        <v>46.89813039104293</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.84563482914714</v>
+        <v>43.69254223764115</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.84563482914714</v>
+        <v>48.2587544097798</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.84563482914714</v>
+        <v>51.89755896257289</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.84563482914714</v>
+        <v>59.07440744323067</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.84563482914714</v>
+        <v>65.57825623543404</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>42.84563482914714</v>
+        <v>69.48577096056029</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.84563482914714</v>
+        <v>40.87764214754777</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.84563482914714</v>
+        <v>60.79901810191082</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.84563482914714</v>
+        <v>67.1022370472004</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.84563482914714</v>
+        <v>-15.93122567178686</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.84563482914714</v>
+        <v>28.87502718881917</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.84563482914714</v>
+        <v>37.65966558384635</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>42.84563482914714</v>
+        <v>8.53998251106016</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.84563482914714</v>
+        <v>20.87878935140778</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.84563482914714</v>
+        <v>26.36939568822795</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>42.84563482914714</v>
+        <v>23.16384757985152</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.84563482914714</v>
+        <v>27.7278015937754</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.84563482914714</v>
+        <v>31.36500026474728</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.84563482914714</v>
+        <v>38.53840934240732</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.84563482914714</v>
+        <v>45.04117098657419</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.84563482914714</v>
+        <v>48.94725172365106</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42.84563482914714</v>
+        <v>20.34248833122588</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.84563482914714</v>
+        <v>40.26061962189551</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.84563482914714</v>
+        <v>46.5616138945647</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.84563482914714</v>
+        <v>-10.0429491064978</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.84563482914714</v>
+        <v>34.76781609271696</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.84563482914714</v>
+        <v>43.55456954695678</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.84563482914714</v>
+        <v>14.42710341626726</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.84563482914714</v>
+        <v>26.76887405197336</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.84563482914714</v>
+        <v>32.26082352856538</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.84563482914714</v>
+        <v>29.05504188956441</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.84563482914714</v>
+        <v>33.62114695556836</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.84563482914714</v>
+        <v>37.25941076444288</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>42.84563482914714</v>
+        <v>44.43301312953891</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>42.84563482914714</v>
+        <v>50.93689583366263</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>42.84563482914714</v>
+        <v>54.84394999254171</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>42.84563482914714</v>
+        <v>26.2361378939756</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.84563482914714</v>
+        <v>46.15762965686322</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>42.84563482914714</v>
+        <v>52.46025130825156</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>42.84563482914714</v>
+        <v>3.957631525333753</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.84563482914714</v>
+        <v>48.76829416416952</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.84563482914714</v>
+        <v>57.55500995918483</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.84563482914714</v>
+        <v>28.43105368441907</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.84563482914714</v>
+        <v>40.77323694201478</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.84563482914714</v>
+        <v>46.26551846935691</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>42.84563482914714</v>
+        <v>43.05991504426181</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.84563482914714</v>
+        <v>47.62648846150462</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.84563482914714</v>
+        <v>51.26502074516948</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.84563482914714</v>
+        <v>58.44189004792072</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.84563482914714</v>
+        <v>64.94587747522367</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>42.84563482914714</v>
+        <v>68.85308276642338</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42.84563482914714</v>
+        <v>40.24464509527611</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.84563482914714</v>
+        <v>60.16646463321645</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.84563482914714</v>
+        <v>66.46931094612565</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.84563482914714</v>
+        <v>-16.14064066799135</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.84563482914714</v>
+        <v>28.6656503243956</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.84563482914714</v>
+        <v>37.45027151428208</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.84563482914714</v>
+        <v>8.330602411061435</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.84563482914714</v>
+        <v>20.66939188514114</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>42.84563482914714</v>
+        <v>26.15998248678234</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>42.84563482914714</v>
+        <v>22.95449336501709</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.84563482914714</v>
+        <v>27.51842025248637</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.84563482914714</v>
+        <v>31.15560880208768</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42.84563482914714</v>
+        <v>38.32914148596974</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.84563482914714</v>
+        <v>44.83189929451801</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.84563482914714</v>
+        <v>48.73795971566479</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>42.84563482914714</v>
+        <v>20.1332137819041</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.84563482914714</v>
+        <v>40.05133746886948</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>42.84563482914714</v>
+        <v>46.35231622301735</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>42.84563482914714</v>
+        <v>-10.25188468409731</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.84563482914714</v>
+        <v>34.55891866977488</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.84563482914714</v>
+        <v>43.34565490734754</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.84563482914714</v>
+        <v>14.21820278208573</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.84563482914714</v>
+        <v>26.55995606679001</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.84563482914714</v>
+        <v>32.05188979738314</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.84563482914714</v>
+        <v>28.84616715903969</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.84563482914714</v>
+        <v>33.41224511157482</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.84563482914714</v>
+        <v>37.05049878893915</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.84563482914714</v>
+        <v>44.22422475629556</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.84563482914714</v>
+        <v>50.72810362799733</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.84563482914714</v>
+        <v>54.63513746467238</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.84563482914714</v>
+        <v>26.02734280565376</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.84563482914714</v>
+        <v>45.94882698331919</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.84563482914714</v>
+        <v>52.25143310412928</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.84563482914714</v>
+        <v>3.748807115156367</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.84563482914714</v>
+        <v>48.55950791027074</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.84563482914714</v>
+        <v>57.34620649233257</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.84563482914714</v>
+        <v>28.22226424488538</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.84563482914714</v>
+        <v>40.56443015075986</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.84563482914714</v>
+        <v>46.05669593717353</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.84563482914714</v>
+        <v>42.85115150635677</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.84563482914714</v>
+        <v>47.41769780983061</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>42.84563482914714</v>
+        <v>51.0562199662174</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.84563482914714</v>
+        <v>58.23321287093275</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.84563482914714</v>
+        <v>64.73719646822424</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.84563482914714</v>
+        <v>68.64438143825426</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>42.84563482914714</v>
+        <v>40.03596120293828</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.84563482914714</v>
+        <v>59.95777315545133</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>42.84563482914714</v>
+        <v>66.26060394246311</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.84563482914714</v>
+        <v>-21.59145466988325</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.84563482914714</v>
+        <v>23.21398121065018</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.84563482914714</v>
+        <v>31.99887302222142</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.84563482914714</v>
+        <v>2.87929085884555</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>42.84563482914714</v>
+        <v>15.2174800099336</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>42.84563482914714</v>
+        <v>20.70829103128808</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.84563482914714</v>
+        <v>17.50289646479924</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>42.84563482914714</v>
+        <v>22.06632117223189</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.84563482914714</v>
+        <v>25.70366318272018</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.84563482914714</v>
+        <v>32.87728261897423</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.84563482914714</v>
+        <v>39.37980666590529</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.84563482914714</v>
+        <v>43.28612323770581</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.84563482914714</v>
+        <v>14.68213213710096</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.84563482914714</v>
+        <v>34.59955807053412</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.84563482914714</v>
+        <v>40.90077095114175</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42.84563482914714</v>
+        <v>-15.70146877682252</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.84563482914714</v>
+        <v>29.10847937709885</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.84563482914714</v>
+        <v>37.89548631706062</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>42.84563482914714</v>
+        <v>8.768121256155794</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>42.84563482914714</v>
+        <v>21.10927417287049</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.84563482914714</v>
+        <v>26.60142838157749</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.84563482914714</v>
+        <v>23.39580024008622</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>42.84563482914714</v>
+        <v>27.96137597948912</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.84563482914714</v>
+        <v>31.59978316880866</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.84563482914714</v>
+        <v>38.77359584063363</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.84563482914714</v>
+        <v>45.27724092968863</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.84563482914714</v>
+        <v>49.18453096193748</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.84563482914714</v>
+        <v>20.57749105228443</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.84563482914714</v>
+        <v>40.49827741867632</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.84563482914714</v>
+        <v>46.80111773549761</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.84563482914714</v>
+        <v>-1.700295632189565</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.84563482914714</v>
+        <v>43.10954996226867</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.84563482914714</v>
+        <v>51.89651925640142</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.84563482914714</v>
+        <v>22.77266415472987</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.84563482914714</v>
+        <v>35.11422967391782</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.84563482914714</v>
+        <v>40.6067159445076</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.84563482914714</v>
+        <v>37.40126600280412</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.84563482914714</v>
+        <v>41.967310077042</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.84563482914714</v>
+        <v>45.60598575017794</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.84563482914714</v>
+        <v>52.78306540394699</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.84563482914714</v>
+        <v>59.28681520964297</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>42.84563482914714</v>
+        <v>63.19425637992624</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.84563482914714</v>
+        <v>34.58659087071824</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.84563482914714</v>
+        <v>54.5077049981323</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.84563482914714</v>
+        <v>60.81076998846306</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.84563482914714</v>
+        <v>-9.874605458489938</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>42.84563482914714</v>
+        <v>34.93133526064771</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.84563482914714</v>
+        <v>43.71612507740242</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>42.84563482914714</v>
+        <v>14.59691314612367</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.84563482914714</v>
+        <v>26.93559239409826</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>42.84563482914714</v>
+        <v>32.42631242738635</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>42.84563482914714</v>
+        <v>29.22093604777747</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.84563482914714</v>
+        <v>33.78480609280059</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.84563482914714</v>
+        <v>37.4220787125043</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.84563482914714</v>
+        <v>44.59550057395775</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.84563482914714</v>
+        <v>51.09820277561887</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.84563482914714</v>
+        <v>55.00447847467497</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>42.84563482914714</v>
+        <v>26.39985211717062</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.84563482914714</v>
+        <v>46.3178079996696</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.84563482914714</v>
+        <v>52.61892589185204</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.84563482914714</v>
+        <v>-3.983249570036648</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.84563482914714</v>
+        <v>40.82720345359822</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>42.84563482914714</v>
+        <v>49.61410836689625</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>42.84563482914714</v>
+        <v>20.4871136587919</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.84563482914714</v>
+        <v>32.82875670232188</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.84563482914714</v>
+        <v>38.32081989227773</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>42.84563482914714</v>
+        <v>35.11520996587747</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.84563482914714</v>
+        <v>39.68123107201218</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.84563482914714</v>
+        <v>43.31956884444249</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.84563482914714</v>
+        <v>50.49318393197991</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.84563482914714</v>
+        <v>56.99700718610082</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>42.84563482914714</v>
+        <v>60.9042563336853</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.84563482914714</v>
+        <v>32.29658117217498</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.84563482914714</v>
+        <v>52.21789752106754</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.84563482914714</v>
+        <v>58.52064281678675</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42.84563482914714</v>
+        <v>10.01719834938895</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.84563482914714</v>
+        <v>54.82754877936425</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.84563482914714</v>
+        <v>63.61441605751482</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.84563482914714</v>
+        <v>34.49093129984733</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.84563482914714</v>
+        <v>46.8329869251066</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.84563482914714</v>
+        <v>52.32538218356849</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.84563482914714</v>
+        <v>49.11995043587417</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.84563482914714</v>
+        <v>53.68643985640774</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.84563482914714</v>
+        <v>57.3250461176827</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.84563482914714</v>
+        <v>64.50192820239245</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.84563482914714</v>
+        <v>71.00585616885992</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.84563482914714</v>
+        <v>74.91325645343382</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>42.84563482914714</v>
+        <v>46.3049557249861</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.84563482914714</v>
+        <v>66.22659980772956</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>42.84563482914714</v>
+        <v>72.52956978487084</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.84563482914714</v>
+        <v>-8.745229956561658</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.84563482914714</v>
+        <v>36.05932797499754</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.84563482914714</v>
+        <v>44.84335194546425</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>42.84563482914714</v>
+        <v>15.72535294808547</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>42.84563482914714</v>
+        <v>28.06389281278355</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.84563482914714</v>
+        <v>33.55404265076272</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>42.84563482914714</v>
+        <v>30.34885317873143</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.84563482914714</v>
+        <v>34.91288167537625</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.84563482914714</v>
+        <v>38.54973163348036</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.84563482914714</v>
+        <v>45.72292096552299</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.84563482914714</v>
+        <v>52.2254945730959</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.84563482914714</v>
+        <v>56.13134055742223</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.84563482914714</v>
+        <v>27.52753855464432</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42.84563482914714</v>
+        <v>47.44510356041935</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.84563482914714</v>
+        <v>53.74558932627743</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.84563482914714</v>
+        <v>-2.854172885314526</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.84563482914714</v>
+        <v>41.95489722325119</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.84563482914714</v>
+        <v>50.74103611685946</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.84563482914714</v>
+        <v>21.61525464564677</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>42.84563482914714</v>
+        <v>33.95675822091137</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.84563482914714</v>
+        <v>39.44825109285439</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.84563482914714</v>
+        <v>36.24282815643353</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.84563482914714</v>
+        <v>40.8090076485267</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.84563482914714</v>
+        <v>44.44692266270881</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>42.84563482914714</v>
+        <v>51.62030526293638</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>42.84563482914714</v>
+        <v>58.12399989096532</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>42.84563482914714</v>
+        <v>62.03081924042142</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>42.84563482914714</v>
+        <v>33.42396864272264</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>42.84563482914714</v>
+        <v>53.34489401753463</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>42.84563482914714</v>
+        <v>59.64700704537991</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.84563482914714</v>
+        <v>11.14543764167611</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.84563482914714</v>
+        <v>55.95440516507081</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>42.84563482914714</v>
+        <v>64.74050641140191</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.84563482914714</v>
+        <v>35.61823463216997</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.84563482914714</v>
+        <v>47.96015079164836</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.84563482914714</v>
+        <v>53.45197570260866</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.84563482914714</v>
+        <v>50.24673097001023</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.84563482914714</v>
+        <v>54.8133787706317</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.84563482914714</v>
+        <v>58.4515622490796</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.84563482914714</v>
+        <v>65.62821164967768</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.84563482914714</v>
+        <v>72.13201098879138</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.84563482914714</v>
+        <v>76.03898145939839</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.84563482914714</v>
+        <v>47.43150534815523</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.84563482914714</v>
+        <v>67.35275845684949</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>42.84563482914714</v>
+        <v>73.65509614096716</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>42.84563482914714</v>
+        <v>-20.06371552916475</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>42.84563482914714</v>
+        <v>24.74061061559787</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>42.84563482914714</v>
+        <v>33.52516761098509</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.84563482914714</v>
+        <v>4.406605845837092</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.84563482914714</v>
+        <v>16.74457972839703</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.84563482914714</v>
+        <v>22.23528807021781</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>42.84563482914714</v>
+        <v>19.02979692114407</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.84563482914714</v>
+        <v>23.59320602444116</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>42.84563482914714</v>
+        <v>27.23053267264545</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>42.84563482914714</v>
+        <v>34.40367266727442</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.84563482914714</v>
+        <v>40.90608018435098</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.84563482914714</v>
+        <v>44.81219177195108</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>42.84563482914714</v>
+        <v>16.20877655141665</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.84563482914714</v>
+        <v>36.12578493450708</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.84563482914714</v>
+        <v>42.42684949453151</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>42.84563482914714</v>
+        <v>-14.17334053350014</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.84563482914714</v>
+        <v>30.63549783046047</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.84563482914714</v>
+        <v>39.42216987328443</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>42.84563482914714</v>
+        <v>10.29582531866056</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.84563482914714</v>
+        <v>22.63676293423516</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.84563482914714</v>
+        <v>28.12881443183933</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>42.84563482914714</v>
+        <v>24.92308973290717</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.84563482914714</v>
+        <v>29.48864984892755</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.84563482914714</v>
+        <v>33.12704165694136</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.84563482914714</v>
+        <v>40.30037482840562</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.84563482914714</v>
+        <v>46.80390338353682</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>42.84563482914714</v>
+        <v>50.71098839226484</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.84563482914714</v>
+        <v>22.10452440413424</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.84563482914714</v>
+        <v>42.02489318481976</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>42.84563482914714</v>
+        <v>48.32758513568292</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.84563482914714</v>
+        <v>-0.1722955222401623</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.84563482914714</v>
+        <v>44.63644031854615</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.84563482914714</v>
+        <v>53.42307468443228</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.84563482914714</v>
+        <v>24.30023993345522</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.84563482914714</v>
+        <v>36.64159017838365</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.84563482914714</v>
+        <v>42.13397370461321</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.84563482914714</v>
+        <v>38.92842722339147</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.84563482914714</v>
+        <v>43.49445569490781</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>42.84563482914714</v>
+        <v>47.13311596062131</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.84563482914714</v>
+        <v>54.30971596734805</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.84563482914714</v>
+        <v>60.81334924855794</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.84563482914714</v>
+        <v>64.72058538390793</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>42.84563482914714</v>
+        <v>36.11349582321436</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>42.84563482914714</v>
+        <v>56.03419239466014</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>42.84563482914714</v>
+        <v>62.33710898618718</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.84563482914714</v>
+        <v>-15.59682888157231</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.84563482914714</v>
+        <v>29.20923476650815</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.84563482914714</v>
+        <v>37.99409060209878</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.84563482914714</v>
+        <v>8.874488185110138</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.84563482914714</v>
+        <v>21.21309196243949</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>42.84563482914714</v>
+        <v>26.70385619470126</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.84563482914714</v>
+        <v>23.49840510513373</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.84563482914714</v>
+        <v>28.06216854228883</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.84563482914714</v>
+        <v>31.69946968000927</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.84563482914714</v>
+        <v>38.87304357851072</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.84563482914714</v>
+        <v>45.37573440201295</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.84563482914714</v>
+        <v>49.28202505926488</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.84563482914714</v>
+        <v>20.67744039887391</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.84563482914714</v>
+        <v>40.59535739056248</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.84563482914714</v>
+        <v>46.89652375817032</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.84563482914714</v>
+        <v>-9.706512977810959</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.84563482914714</v>
+        <v>35.10406299058668</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.84563482914714</v>
+        <v>43.89103393966816</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>42.84563482914714</v>
+        <v>14.76364862672308</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.84563482914714</v>
+        <v>27.10521620417167</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>42.84563482914714</v>
+        <v>32.59732360655967</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.84563482914714</v>
+        <v>29.39163895706731</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.84563482914714</v>
+        <v>33.95755345578466</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.84563482914714</v>
+        <v>37.59591975676081</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>42.84563482914714</v>
+        <v>44.76968689896121</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.84563482914714</v>
+        <v>51.27349877826914</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.84563482914714</v>
+        <v>55.18076289038511</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>42.84563482914714</v>
+        <v>26.57312942571271</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.84563482914714</v>
+        <v>46.49440689031776</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>42.84563482914714</v>
+        <v>52.79720067646822</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>42.84563482914714</v>
+        <v>4.294240462568567</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.84563482914714</v>
+        <v>49.10471384736668</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.84563482914714</v>
+        <v>57.89164716004287</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>42.84563482914714</v>
+        <v>28.7677718092278</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>42.84563482914714</v>
+        <v>41.10975198032095</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.84563482914714</v>
+        <v>46.60219145139895</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.84563482914714</v>
+        <v>43.39668498943543</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.84563482914714</v>
+        <v>47.96306781459448</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.84563482914714</v>
+        <v>51.60170260409082</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.84563482914714</v>
+        <v>58.77873674603377</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.84563482914714</v>
+        <v>65.28265334061582</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.84563482914714</v>
+        <v>69.19006859141298</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>42.84563482914714</v>
+        <v>40.58180954513325</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.84563482914714</v>
+        <v>60.50341475645048</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.84563482914714</v>
+        <v>66.80643322341821</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>42.84563482914714</v>
+        <v>-3.651202585968733</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.84563482914714</v>
+        <v>41.15452892710148</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.84563482914714</v>
+        <v>49.93883998858924</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>42.84563482914714</v>
+        <v>20.82073931667999</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.84563482914714</v>
+        <v>33.15968702676953</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.84563482914714</v>
+        <v>38.6500854580258</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>42.84563482914714</v>
+        <v>35.44461682964329</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.84563482914714</v>
+        <v>40.00885240569546</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.84563482914714</v>
+        <v>43.64589836185219</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.84563482914714</v>
+        <v>50.8191120361907</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>42.84563482914714</v>
+        <v>57.3218915698239</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.84563482914714</v>
+        <v>61.22784403588521</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>42.84563482914714</v>
+        <v>32.62315198178608</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>42.84563482914714</v>
+        <v>52.54130843733829</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.84563482914714</v>
+        <v>58.84205830316405</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>42.84563482914714</v>
+        <v>2.237615881107402</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.84563482914714</v>
+        <v>47.04785964299806</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>42.84563482914714</v>
+        <v>55.83428568439622</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>42.84563482914714</v>
+        <v>26.70840219531688</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.84563482914714</v>
+        <v>39.05031365578039</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.84563482914714</v>
+        <v>44.54205516594261</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>42.84563482914714</v>
+        <v>41.33635302323428</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.84563482914714</v>
+        <v>45.9027396239123</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>42.84563482914714</v>
+        <v>49.5408506736605</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.84563482914714</v>
+        <v>56.71425760876282</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.84563482914714</v>
+        <v>63.21815818544617</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>42.84563482914714</v>
+        <v>67.12508404236696</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>42.84563482914714</v>
+        <v>38.51734335577096</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.84563482914714</v>
+        <v>58.43886022961836</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.84563482914714</v>
+        <v>64.74123740828163</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.84563482914714</v>
+        <v>16.23724936407071</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.84563482914714</v>
+        <v>61.04739054134798</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.84563482914714</v>
+        <v>69.83377891626351</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.84563482914714</v>
+        <v>40.711405218302</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.84563482914714</v>
+        <v>53.053729272338</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.84563482914714</v>
+        <v>58.54580282008506</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.84563482914714</v>
+        <v>55.34027887568671</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.84563482914714</v>
+        <v>59.90713379653683</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.84563482914714</v>
+        <v>63.5455133100905</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.84563482914714</v>
+        <v>70.72218713068089</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.84563482914714</v>
+        <v>77.22619241884577</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>42.84563482914714</v>
+        <v>81.13326939778092</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.84563482914714</v>
+        <v>52.52490319974272</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.84563482914714</v>
+        <v>72.44674781564852</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>42.84563482914714</v>
+        <v>78.74934964380198</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.84563482914714</v>
+        <v>-23.46853259875631</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>42.84563482914714</v>
+        <v>21.33521742166438</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.84563482914714</v>
+        <v>30.11988150138741</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>42.84563482914714</v>
+        <v>1.000754413125676</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>42.84563482914714</v>
+        <v>13.33856105894445</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>42.84563482914714</v>
+        <v>18.8293318169312</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.84563482914714</v>
+        <v>15.62378986656923</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>42.84563482914714</v>
+        <v>20.18709703564123</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.84563482914714</v>
+        <v>23.82449385690229</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.84563482914714</v>
+        <v>30.99735039479272</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.84563482914714</v>
+        <v>37.49967131762794</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.84563482914714</v>
+        <v>41.40580394833314</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>42.84563482914714</v>
+        <v>12.80264951723707</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.84563482914714</v>
+        <v>32.7193752180071</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>42.84563482914714</v>
+        <v>39.02052788122928</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.84563482914714</v>
+        <v>-17.57913900575447</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.84563482914714</v>
+        <v>27.22912317618382</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.84563482914714</v>
+        <v>36.01590231343012</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.84563482914714</v>
+        <v>6.888992435122262</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.84563482914714</v>
+        <v>19.22976276793686</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.84563482914714</v>
+        <v>24.72187669451314</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.84563482914714</v>
+        <v>21.51610118763968</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.84563482914714</v>
+        <v>26.08155933642304</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>42.84563482914714</v>
+        <v>29.72002132008988</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>42.84563482914714</v>
+        <v>36.89307106797669</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>42.84563482914714</v>
+        <v>43.39651301460181</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.84563482914714</v>
+        <v>47.30361906253775</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>42.84563482914714</v>
+        <v>18.69741590843576</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>42.84563482914714</v>
+        <v>38.61750195839825</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.84563482914714</v>
+        <v>44.92028202001843</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>42.84563482914714</v>
+        <v>-3.578375467985026</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.84563482914714</v>
+        <v>41.22978418973487</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.84563482914714</v>
+        <v>50.01652566843468</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.84563482914714</v>
+        <v>20.8931255722285</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.84563482914714</v>
+        <v>33.23430852853456</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.84563482914714</v>
+        <v>38.72675449686604</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.84563482914714</v>
+        <v>35.52115718491412</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.84563482914714</v>
+        <v>40.08708368728487</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>42.84563482914714</v>
+        <v>43.72581413965413</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>42.84563482914714</v>
+        <v>50.9021307090547</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.84563482914714</v>
+        <v>57.40567738379907</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.84563482914714</v>
+        <v>61.31293456714805</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>42.84563482914714</v>
+        <v>32.70610583147386</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>42.84563482914714</v>
+        <v>52.62651966959557</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>42.84563482914714</v>
+        <v>58.9295243870467</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>42.84563482914714</v>
+        <v>-14.86979146571052</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.84563482914714</v>
+        <v>29.93532224419182</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.84563482914714</v>
+        <v>38.71970329963115</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.84563482914714</v>
+        <v>9.600400100594427</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>42.84563482914714</v>
+        <v>21.93888347091475</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.84563482914714</v>
+        <v>27.42926471646474</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>42.84563482914714</v>
+        <v>24.22400701675595</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.84563482914714</v>
+        <v>28.78783292258693</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.84563482914714</v>
+        <v>32.42486353306158</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>42.84563482914714</v>
+        <v>39.59808455317189</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.84563482914714</v>
+        <v>46.10067485427017</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.84563482914714</v>
+        <v>50.00664091865697</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.84563482914714</v>
+        <v>21.40255409743823</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>42.84563482914714</v>
+        <v>41.32016964305053</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.84563482914714</v>
+        <v>47.62093005487414</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.84563482914714</v>
+        <v>-8.979856263693634</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.84563482914714</v>
+        <v>35.82976970651903</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.84563482914714</v>
+        <v>44.61626576567956</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>42.84563482914714</v>
+        <v>15.48917982894598</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.84563482914714</v>
+        <v>27.83062694413373</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.84563482914714</v>
+        <v>33.32235129045803</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>42.84563482914714</v>
+        <v>30.1168600976725</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.84563482914714</v>
+        <v>34.68283702114009</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.84563482914714</v>
+        <v>38.3209327358572</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.84563482914714</v>
+        <v>45.49434705721315</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.84563482914714</v>
+        <v>51.99805839479355</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>42.84563482914714</v>
+        <v>55.9049978541246</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.84563482914714</v>
+        <v>27.29786236769401</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.84563482914714</v>
+        <v>47.21883832947442</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.84563482914714</v>
+        <v>53.52122607323209</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.84563482914714</v>
+        <v>5.02031179596527</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.84563482914714</v>
+        <v>49.82983520353567</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.84563482914714</v>
+        <v>58.61629361599167</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.84563482914714</v>
+        <v>29.49271743558309</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.84563482914714</v>
+        <v>41.83457715722064</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.84563482914714</v>
+        <v>47.32663355178961</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.84563482914714</v>
+        <v>44.12132057423442</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.84563482914714</v>
+        <v>48.68776583264771</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.84563482914714</v>
+        <v>52.32613001836144</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.84563482914714</v>
+        <v>59.50281120453822</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>42.84563482914714</v>
+        <v>66.00662726290575</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>42.84563482914714</v>
+        <v>69.91371785159352</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.84563482914714</v>
+        <v>41.30595680831227</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.84563482914714</v>
+        <v>61.22726053147206</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>42.84563482914714</v>
+        <v>67.52987293784618</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>42.84563482914714</v>
+        <v>-24.61197060263946</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.84563482914714</v>
+        <v>20.19263782648871</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>42.84563482914714</v>
+        <v>28.97714007987243</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>42.84563482914714</v>
+        <v>-0.1422425240777301</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>42.84563482914714</v>
+        <v>12.19577280738129</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>42.84563482914714</v>
+        <v>17.68632884285439</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>42.84563482914714</v>
+        <v>14.48099834426451</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.84563482914714</v>
+        <v>19.04439082015149</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.84563482914714</v>
+        <v>22.68157744368428</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.84563482914714</v>
+        <v>29.85497024254046</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.84563482914714</v>
+        <v>36.35738945030353</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.84563482914714</v>
+        <v>40.26340808913979</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.84563482914714</v>
+        <v>11.65999226223887</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.84563482914714</v>
+        <v>31.57708989407281</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>42.84563482914714</v>
+        <v>37.87801975194562</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.84563482914714</v>
+        <v>-18.72367396276745</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.84563482914714</v>
+        <v>26.08544670588613</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>42.84563482914714</v>
+        <v>34.87206399191651</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.84563482914714</v>
+        <v>5.744898477883069</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.84563482914714</v>
+        <v>18.08587753221543</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>42.84563482914714</v>
+        <v>23.57777670256378</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>42.84563482914714</v>
+        <v>20.37221266718036</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.84563482914714</v>
+        <v>24.93775613982946</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.84563482914714</v>
+        <v>28.57600790027296</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.84563482914714</v>
+        <v>35.74959396631773</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.84563482914714</v>
+        <v>42.25313420627215</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.84563482914714</v>
+        <v>46.16012625153526</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.84563482914714</v>
+        <v>17.55366172583031</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.84563482914714</v>
+        <v>37.47411975010796</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.84563482914714</v>
+        <v>43.77667697589932</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.84563482914714</v>
+        <v>-4.722548501967182</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.84563482914714</v>
+        <v>40.08646965283351</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.84563482914714</v>
+        <v>48.8730492661543</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>42.84563482914714</v>
+        <v>19.74939353704538</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.84563482914714</v>
+        <v>32.09078522810258</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.84563482914714</v>
+        <v>37.58301643508157</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.84563482914714</v>
+        <v>34.37763062939241</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.84563482914714</v>
+        <v>38.9436424666422</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.84563482914714</v>
+        <v>42.58216268971042</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.84563482914714</v>
+        <v>49.75901558933965</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.84563482914714</v>
+        <v>56.26266055893673</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.84563482914714</v>
+        <v>60.16980373170493</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>42.84563482914714</v>
+        <v>31.56271360398257</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>42.84563482914714</v>
+        <v>51.48349942937223</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>42.84563482914714</v>
+        <v>57.78628130219268</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>42.84563482914714</v>
+        <v>-28.47989051023391</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>42.84563482914714</v>
+        <v>16.32333925753478</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>42.84563482914714</v>
+        <v>25.10763757540208</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>42.84563482914714</v>
+        <v>-4.011414217413332</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>42.84563482914714</v>
+        <v>8.326134431946755</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>42.84563482914714</v>
+        <v>13.81652298387139</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>42.84563482914714</v>
+        <v>10.61133574500543</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>42.84563482914714</v>
+        <v>15.17448779623358</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>42.84563482914714</v>
+        <v>18.81155131700775</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>42.84563482914714</v>
+        <v>25.98477817725991</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>42.84563482914714</v>
+        <v>32.48697144167666</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>42.84563482914714</v>
+        <v>36.39290618756259</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>42.84563482914714</v>
+        <v>7.790459633248545</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>42.84563482914714</v>
+        <v>27.70686709323429</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>42.84563482914714</v>
+        <v>34.00762005715951</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>42.84563482914714</v>
+        <v>-22.59101033716858</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>42.84563482914714</v>
+        <v>22.21673156209711</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>42.84563482914714</v>
+        <v>31.00314487550254</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>42.84563482914714</v>
+        <v>1.876310405164602</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.84563482914714</v>
+        <v>14.21682270803065</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.84563482914714</v>
+        <v>19.70855437218138</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>42.84563482914714</v>
+        <v>16.50313360072194</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>42.84563482914714</v>
+        <v>21.06843659853924</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>42.84563482914714</v>
+        <v>24.70656523769931</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>42.84563482914714</v>
+        <v>31.87998535425091</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.84563482914714</v>
+        <v>38.38329962298435</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.84563482914714</v>
+        <v>42.29020775638897</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>42.84563482914714</v>
+        <v>13.68471254306901</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>42.84563482914714</v>
+        <v>33.60448031563597</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>42.84563482914714</v>
+        <v>39.90686061904508</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.84563482914714</v>
+        <v>-8.590121427110304</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>42.84563482914714</v>
+        <v>36.21751796665531</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>42.84563482914714</v>
+        <v>45.00389361671837</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.84563482914714</v>
+        <v>15.88056881923326</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.84563482914714</v>
+        <v>28.22149375160548</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>42.84563482914714</v>
+        <v>33.71355744709054</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>42.84563482914714</v>
+        <v>30.5083149077047</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.84563482914714</v>
+        <v>35.07408626195929</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>42.84563482914714</v>
+        <v>38.71248335836977</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.84563482914714</v>
+        <v>45.88917021427126</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.84563482914714</v>
+        <v>52.39258921251833</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.84563482914714</v>
+        <v>56.29964847053505</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>42.84563482914714</v>
+        <v>27.69352765774916</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.84563482914714</v>
+        <v>47.61362322747682</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>42.84563482914714</v>
+        <v>53.91622817644379</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>42.84563482914714</v>
+        <v>-17.45921660192043</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>42.84563482914714</v>
+        <v>27.34684026862006</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>42.84563482914714</v>
+        <v>36.13188781685535</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.84563482914714</v>
+        <v>7.012154937217318</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>42.84563482914714</v>
+        <v>19.3505957346659</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.84563482914714</v>
+        <v>24.84154591359966</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>42.84563482914714</v>
+        <v>21.63605663604672</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.84563482914714</v>
+        <v>26.19962484703179</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.84563482914714</v>
+        <v>29.83708397739697</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.84563482914714</v>
+        <v>37.01061832872774</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.84563482914714</v>
+        <v>43.51326595459496</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.84563482914714</v>
+        <v>47.41964005238874</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.84563482914714</v>
+        <v>18.81510278533013</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.84563482914714</v>
+        <v>38.73286984347926</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.84563482914714</v>
+        <v>45.03423278458804</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.84563482914714</v>
+        <v>-11.56960371732548</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.84563482914714</v>
+        <v>33.2409654763389</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>42.84563482914714</v>
+        <v>42.02812817985087</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>42.84563482914714</v>
+        <v>12.90061227196311</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>42.84563482914714</v>
+        <v>25.24201686592933</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>42.84563482914714</v>
+        <v>30.73431025512168</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.84563482914714</v>
+        <v>27.52858739002984</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>42.84563482914714</v>
+        <v>32.09430665732027</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.84563482914714</v>
+        <v>35.73283098477255</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.84563482914714</v>
+        <v>42.90655856325129</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>42.84563482914714</v>
+        <v>49.41032724710517</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.84563482914714</v>
+        <v>53.31767481673383</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>42.84563482914714</v>
+        <v>24.71008871414752</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.84563482914714</v>
+        <v>44.63121624214996</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>42.84563482914714</v>
+        <v>50.93420664433843</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.84563482914714</v>
+        <v>2.431588580746691</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.84563482914714</v>
+        <v>47.24205521416555</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.84563482914714</v>
+        <v>56.02918026592359</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.84563482914714</v>
+        <v>26.90517436156422</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.84563482914714</v>
+        <v>39.24699156462187</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>42.84563482914714</v>
+        <v>44.73961701837875</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.84563482914714</v>
+        <v>41.53407234591255</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.84563482914714</v>
+        <v>46.10025995541714</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.84563482914714</v>
+        <v>49.73905276928868</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.84563482914714</v>
+        <v>56.91604736845564</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>42.84563482914714</v>
+        <v>63.4199207718146</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>42.84563482914714</v>
+        <v>67.3274194826168</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>42.84563482914714</v>
+        <v>38.71920778102238</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>42.84563482914714</v>
+        <v>58.64066307583865</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>42.84563482914714</v>
+        <v>64.94387815167393</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>42.84563482914714</v>
+        <v>-18.4750609319165</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.84563482914714</v>
+        <v>26.32958856889759</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.84563482914714</v>
+        <v>35.11415218519501</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.84563482914714</v>
+        <v>5.994895238054781</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>42.84563482914714</v>
+        <v>18.33311123879453</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.84563482914714</v>
+        <v>23.82370466340326</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>42.84563482914714</v>
+        <v>20.61827079175471</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.84563482914714</v>
+        <v>25.18186753009157</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>42.84563482914714</v>
+        <v>28.8190916853243</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.84563482914714</v>
+        <v>35.9921770500559</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.84563482914714</v>
+        <v>42.49466143904051</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.84563482914714</v>
+        <v>46.40070912300003</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>42.84563482914714</v>
+        <v>17.79698184481727</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.84563482914714</v>
+        <v>37.71425600703374</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.84563482914714</v>
+        <v>44.01523556237017</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>42.84563482914714</v>
+        <v>-12.58684556069265</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.84563482914714</v>
+        <v>32.22231614605103</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.84563482914714</v>
+        <v>41.00899479796517</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.84563482914714</v>
+        <v>11.88195499106423</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.84563482914714</v>
+        <v>24.22313469439287</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.84563482914714</v>
+        <v>29.71507125518379</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.84563482914714</v>
+        <v>26.50940384537246</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.84563482914714</v>
+        <v>31.07515156957091</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.84563482914714</v>
+        <v>34.71344085843062</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.84563482914714</v>
+        <v>41.88671950047519</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.84563482914714</v>
+        <v>48.39032491484723</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.84563482914714</v>
+        <v>52.29734600600018</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.84563482914714</v>
+        <v>23.69057006317173</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.84563482914714</v>
+        <v>43.61120459659794</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.84563482914714</v>
+        <v>49.91381151918195</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.84563482914714</v>
+        <v>1.413552355271648</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.84563482914714</v>
+        <v>46.22261151956293</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.84563482914714</v>
+        <v>55.00925251599581</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>42.84563482914714</v>
+        <v>25.88572248840133</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.84563482914714</v>
+        <v>38.22731480760554</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.84563482914714</v>
+        <v>43.71958341475006</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.84563482914714</v>
+        <v>40.51409420734997</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.84563482914714</v>
+        <v>45.08031027850855</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.84563482914714</v>
+        <v>48.71886803834418</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.84563482914714</v>
+        <v>55.89541353444049</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.84563482914714</v>
+        <v>62.39912367418601</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>42.84563482914714</v>
+        <v>66.30629589821508</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.84563482914714</v>
+        <v>37.69889437943387</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.84563482914714</v>
+        <v>57.61985668861662</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>42.84563482914714</v>
+        <v>63.92268827080291</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.84563482914714</v>
+        <v>-5.461900085797694</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.84563482914714</v>
+        <v>39.34506263679528</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.84563482914714</v>
+        <v>48.13003200532371</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.84563482914714</v>
+        <v>19.01065479498216</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.84563482914714</v>
+        <v>31.34972396532653</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.84563482914714</v>
+        <v>36.84057738241263</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.84563482914714</v>
+        <v>33.63501721783048</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.84563482914714</v>
+        <v>38.19910956742622</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.84563482914714</v>
+        <v>41.83648386833438</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.84563482914714</v>
+        <v>49.00991562258521</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.84563482914714</v>
+        <v>55.51281246974789</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.84563482914714</v>
+        <v>59.4191456428634</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.84563482914714</v>
+        <v>30.81375845888813</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.84563482914714</v>
+        <v>50.73226155154005</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.84563482914714</v>
+        <v>57.0335271541331</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.84563482914714</v>
+        <v>0.4280552988621622</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.84563482914714</v>
+        <v>45.2395303879576</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>42.84563482914714</v>
+        <v>54.02661489339648</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>42.84563482914714</v>
+        <v>24.8994546711843</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.84563482914714</v>
+        <v>37.24148767327399</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.84563482914714</v>
+        <v>42.73368427685359</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>42.84563482914714</v>
+        <v>39.5278905352986</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.84563482914714</v>
+        <v>44.09413396984083</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.84563482914714</v>
+        <v>47.73257344987265</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.84563482914714</v>
+        <v>54.90619843597524</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.84563482914714</v>
+        <v>61.4102163552969</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.84563482914714</v>
+        <v>65.31752299525824</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.84563482914714</v>
+        <v>36.7090869917284</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.84563482914714</v>
+        <v>56.63095059280893</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.84563482914714</v>
+        <v>62.93384363443484</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.84563482914714</v>
+        <v>14.42850269010712</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.84563482914714</v>
+        <v>59.23987518225393</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.84563482914714</v>
+        <v>68.02692204268006</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.84563482914714</v>
+        <v>38.90327182868175</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.84563482914714</v>
+        <v>51.24571742158635</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.84563482914714</v>
+        <v>56.73824609229742</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.84563482914714</v>
+        <v>53.53263053076644</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.84563482914714</v>
+        <v>58.09934228989194</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.84563482914714</v>
+        <v>61.73805025800387</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.84563482914714</v>
+        <v>68.91494230097267</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.84563482914714</v>
+        <v>75.41906493364475</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.84563482914714</v>
+        <v>79.3265227101884</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.84563482914714</v>
+        <v>50.71746114580056</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.84563482914714</v>
+        <v>70.63965248741324</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>42.84563482914714</v>
+        <v>76.94277020646378</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>42.84563482914714</v>
+        <v>-12.48675177588102</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>42.84563482914714</v>
+        <v>32.31839111743666</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>42.84563482914714</v>
+        <v>41.10317401233415</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>42.84563482914714</v>
+        <v>11.98441342907149</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>42.84563482914714</v>
+        <v>24.32272519010981</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>42.84563482914714</v>
+        <v>29.81346838910527</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.84563482914714</v>
+        <v>26.60810171710882</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.84563482914714</v>
+        <v>31.17172052826227</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.84563482914714</v>
+        <v>34.80902120359538</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.84563482914714</v>
+        <v>41.98238395821063</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.84563482914714</v>
+        <v>48.48492410781996</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.84563482914714</v>
+        <v>52.39119974660589</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.84563482914714</v>
+        <v>23.78715935635928</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>42.84563482914714</v>
+        <v>43.70463009561077</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.84563482914714</v>
+        <v>50.00576676558622</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>42.84563482914714</v>
+        <v>-6.596499665692292</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.84563482914714</v>
+        <v>38.21315543739895</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.84563482914714</v>
+        <v>47.00005342271056</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>42.84563482914714</v>
+        <v>17.87351010417008</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.84563482914714</v>
+        <v>30.2147855940312</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>42.84563482914714</v>
+        <v>35.70687195037404</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>42.84563482914714</v>
+        <v>32.50127171151458</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.84563482914714</v>
+        <v>37.06704153141909</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>42.84563482914714</v>
+        <v>40.70540736033168</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.84563482914714</v>
+        <v>47.87896333892782</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.84563482914714</v>
+        <v>54.38262451465103</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>42.84563482914714</v>
+        <v>58.28987359906371</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.84563482914714</v>
+        <v>29.68278445102108</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.84563482914714</v>
+        <v>49.60361558092821</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.84563482914714</v>
+        <v>55.90637965321237</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.84563482914714</v>
+        <v>7.403920982134153</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.84563482914714</v>
+        <v>52.21347350218066</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.84563482914714</v>
+        <v>61.00033384832166</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.84563482914714</v>
+        <v>31.87730046047325</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.84563482914714</v>
+        <v>44.21898852841612</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.84563482914714</v>
+        <v>49.71140694815263</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.84563482914714</v>
+        <v>46.50598488410886</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.84563482914714</v>
+        <v>51.07222301529153</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.84563482914714</v>
+        <v>54.71085732933678</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.84563482914714</v>
+        <v>61.88768027325064</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.84563482914714</v>
+        <v>68.39144616007873</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.84563482914714</v>
+        <v>72.29884638190897</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.84563482914714</v>
+        <v>43.69113166604525</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.84563482914714</v>
+        <v>63.612290530355</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>42.84563482914714</v>
+        <v>69.91527927937814</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.84563482914714</v>
+        <v>-14.40282803541758</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>42.84563482914714</v>
+        <v>30.40383157203628</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>42.84563482914714</v>
+        <v>39.18880169553445</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.84563482914714</v>
+        <v>10.06863869359945</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>42.84563482914714</v>
+        <v>22.40749437929976</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.84563482914714</v>
+        <v>27.89835434597076</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.84563482914714</v>
+        <v>24.69277692286421</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.84563482914714</v>
+        <v>29.25668191862685</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.84563482914714</v>
+        <v>32.89408179981224</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.84563482914714</v>
+        <v>40.06745556642416</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.84563482914714</v>
+        <v>46.57026039417617</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>42.84563482914714</v>
+        <v>50.47652698470843</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.84563482914714</v>
+        <v>21.87140815626169</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.84563482914714</v>
+        <v>41.78965565878714</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.84563482914714</v>
+        <v>48.09093484835394</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.84563482914714</v>
+        <v>-8.513931165106712</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>42.84563482914714</v>
+        <v>36.29724081912782</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>42.84563482914714</v>
+        <v>45.08432606176343</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.84563482914714</v>
+        <v>15.95637994772387</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>42.84563482914714</v>
+        <v>28.29819945731101</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.84563482914714</v>
+        <v>33.79040260586562</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.84563482914714</v>
+        <v>30.58459163410915</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>42.84563482914714</v>
+        <v>35.15064770654097</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.84563482914714</v>
+        <v>38.78911275579317</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.84563482914714</v>
+        <v>45.96267979043826</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.84563482914714</v>
+        <v>52.46660568763203</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.84563482914714</v>
+        <v>56.37384572842718</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>42.84563482914714</v>
+        <v>27.76567811548973</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.84563482914714</v>
+        <v>47.68728612336015</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>42.84563482914714</v>
+        <v>53.99019273898939</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.84563482914714</v>
+        <v>5.486800075835234</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.84563482914714</v>
+        <v>50.29786948721296</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.84563482914714</v>
+        <v>59.08491708719107</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.84563482914714</v>
+        <v>29.96048093540806</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.84563482914714</v>
+        <v>42.30271305772597</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.84563482914714</v>
+        <v>47.79524827666746</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.84563482914714</v>
+        <v>44.58961549144529</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.84563482914714</v>
+        <v>49.15613991091023</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.84563482914714</v>
+        <v>52.79487345138791</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.84563482914714</v>
+        <v>59.97170750193671</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.84563482914714</v>
+        <v>66.47573812358731</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.84563482914714</v>
+        <v>70.38312930750051</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.84563482914714</v>
+        <v>41.77433610981218</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.84563482914714</v>
+        <v>61.69627188364207</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.84563482914714</v>
+        <v>67.99940317991611</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.84563482914714</v>
+        <v>-19.47374169510435</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.84563482914714</v>
+        <v>25.33057422661086</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.84563482914714</v>
+        <v>34.11533717190828</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>42.84563482914714</v>
+        <v>4.996512397367795</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>42.84563482914714</v>
+        <v>17.33444712693752</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.84563482914714</v>
+        <v>22.82526672872878</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.84563482914714</v>
+        <v>19.61978476254929</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>42.84563482914714</v>
+        <v>24.18314926963906</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.84563482914714</v>
+        <v>27.82054197496173</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>42.84563482914714</v>
+        <v>34.99362497133662</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>42.84563482914714</v>
+        <v>41.49600750328564</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>42.84563482914714</v>
+        <v>45.40226903744697</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>42.84563482914714</v>
+        <v>16.79881011057974</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.84563482914714</v>
+        <v>36.71578140158131</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.84563482914714</v>
+        <v>43.01698037369302</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.84563482914714</v>
+        <v>-13.58297409931838</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.84563482914714</v>
+        <v>31.22585402853765</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.84563482914714</v>
+        <v>40.01273206035872</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.84563482914714</v>
+        <v>10.88612454533627</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.84563482914714</v>
+        <v>23.22702300176611</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.84563482914714</v>
+        <v>28.71918578404934</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>42.84563482914714</v>
+        <v>25.51347023672152</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.84563482914714</v>
+        <v>30.07898575534246</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.84563482914714</v>
+        <v>33.71744363574381</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.84563482914714</v>
+        <v>40.89071980825948</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.84563482914714</v>
+        <v>47.39422337520587</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.84563482914714</v>
+        <v>51.30145834874629</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.84563482914714</v>
+        <v>22.69495062751464</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.84563482914714</v>
+        <v>42.61528230916549</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.84563482914714</v>
+        <v>48.91810869999695</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.84563482914714</v>
+        <v>0.4178408395424213</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.84563482914714</v>
+        <v>45.22656641568331</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.84563482914714</v>
+        <v>54.01340679971686</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.84563482914714</v>
+        <v>24.89030913897723</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.84563482914714</v>
+        <v>37.23162019919887</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.84563482914714</v>
+        <v>42.72411503227904</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.84563482914714</v>
+        <v>39.51857767182885</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.84563482914714</v>
+        <v>44.08456152505057</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.84563482914714</v>
+        <v>47.72328788010778</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.84563482914714</v>
+        <v>54.89983093826864</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.84563482914714</v>
+        <v>61.40343922414861</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.84563482914714</v>
+        <v>65.31082533688205</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>42.84563482914714</v>
+        <v>36.70369203662956</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.84563482914714</v>
+        <v>56.62435148226639</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.84563482914714</v>
+        <v>62.92740253756774</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>42.84563482914714</v>
+        <v>-13.88175419573228</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.84563482914714</v>
+        <v>30.92318608825151</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.84563482914714</v>
+        <v>39.70800518673032</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>42.84563482914714</v>
+        <v>10.58928510093934</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.84563482914714</v>
+        <v>22.92748718177627</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.84563482914714</v>
+        <v>28.41827345647967</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.84563482914714</v>
+        <v>25.21287302561684</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.84563482914714</v>
+        <v>29.7764071676548</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.84563482914714</v>
+        <v>33.41374689947448</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.84563482914714</v>
+        <v>40.58707517564842</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.84563482914714</v>
+        <v>47.08957466231352</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.84563482914714</v>
+        <v>50.99586883434809</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.84563482914714</v>
+        <v>22.39197332698616</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.84563482914714</v>
+        <v>42.30930544367432</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>42.84563482914714</v>
+        <v>48.61048632553157</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>42.84563482914714</v>
+        <v>-7.991650801376906</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>42.84563482914714</v>
+        <v>36.81780167578354</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>42.84563482914714</v>
+        <v>45.60473587472093</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>42.84563482914714</v>
+        <v>16.47823304708398</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.84563482914714</v>
+        <v>28.81939884495849</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>42.84563482914714</v>
+        <v>34.31152828799436</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.84563482914714</v>
+        <v>31.1058942782566</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.84563482914714</v>
+        <v>35.67157942061574</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.84563482914714</v>
+        <v>39.30998431582061</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.84563482914714</v>
+        <v>46.48350580456345</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.84563482914714</v>
+        <v>52.987126314734</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.84563482914714</v>
+        <v>56.89439393615449</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>42.84563482914714</v>
+        <v>28.28744966686436</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>42.84563482914714</v>
+        <v>48.20814216156096</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.84563482914714</v>
+        <v>54.5109504570748</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.84563482914714</v>
+        <v>6.008856250378656</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.84563482914714</v>
+        <v>50.81820615051454</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.84563482914714</v>
+        <v>59.60510270915377</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.84563482914714</v>
+        <v>30.48210980926599</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.84563482914714</v>
+        <v>42.82368818787775</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.84563482914714</v>
+        <v>48.31614969353014</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.84563482914714</v>
+        <v>45.1106938584057</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.84563482914714</v>
+        <v>49.67684731453842</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.84563482914714</v>
+        <v>53.3155206944859</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.84563482914714</v>
+        <v>60.49230914063078</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>42.84563482914714</v>
+        <v>66.99603436283503</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>42.84563482914714</v>
+        <v>70.90345312263362</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.84563482914714</v>
+        <v>42.29588328268547</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.84563482914714</v>
+        <v>62.21690351542277</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.84563482914714</v>
+        <v>68.51993648675678</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.84563482914714</v>
+        <v>-10.9237468765446</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.84563482914714</v>
+        <v>33.88154215828918</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>42.84563482914714</v>
+        <v>42.66613992715948</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.84563482914714</v>
+        <v>13.54773125336972</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>42.84563482914714</v>
+        <v>25.88613523154079</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.84563482914714</v>
+        <v>31.37677640749344</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>42.84563482914714</v>
+        <v>28.17140856195051</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>42.84563482914714</v>
+        <v>32.73510918405914</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.84563482914714</v>
+        <v>36.37234873961616</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.84563482914714</v>
+        <v>43.54568021578162</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.84563482914714</v>
+        <v>50.04825115239574</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.84563482914714</v>
+        <v>53.95437461369166</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>42.84563482914714</v>
+        <v>25.3502078894647</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.84563482914714</v>
+        <v>45.26779240031085</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>42.84563482914714</v>
+        <v>51.56880602150564</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.84563482914714</v>
+        <v>-5.034425935852639</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.84563482914714</v>
+        <v>39.77537532860397</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>42.84563482914714</v>
+        <v>48.56208813289113</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.84563482914714</v>
+        <v>19.43589664364465</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>42.84563482914714</v>
+        <v>31.77726435931466</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.84563482914714</v>
+        <v>37.26924865580482</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>42.84563482914714</v>
+        <v>34.06364728073829</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.84563482914714</v>
+        <v>38.62949891308274</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.84563482914714</v>
+        <v>42.26780359394634</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.84563482914714</v>
+        <v>49.44132830928011</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.84563482914714</v>
+        <v>55.94502027262816</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>42.84563482914714</v>
+        <v>59.85211715363376</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.84563482914714</v>
+        <v>31.24490172073838</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.84563482914714</v>
+        <v>51.16584663115118</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.84563482914714</v>
+        <v>57.4684876118168</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>42.84563482914714</v>
+        <v>8.965926242180061</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.84563482914714</v>
+        <v>53.7756249430599</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>42.84563482914714</v>
+        <v>62.562300085063</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>42.84563482914714</v>
+        <v>33.43961847602709</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.84563482914714</v>
+        <v>45.78139879045325</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>42.84563482914714</v>
+        <v>51.27371513310409</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>42.84563482914714</v>
+        <v>48.06829195085284</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.84563482914714</v>
+        <v>52.63461191213783</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.84563482914714</v>
+        <v>56.27318506387776</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>42.84563482914714</v>
+        <v>63.44997670840867</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.84563482914714</v>
+        <v>69.95377338948511</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>42.84563482914714</v>
+        <v>73.86102140179555</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.84563482914714</v>
+        <v>45.253180413154</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>42.84563482914714</v>
+        <v>65.17445307904286</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>42.84563482914714</v>
+        <v>71.47731871672131</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>42.84563482914714</v>
+        <v>-12.83674062974835</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.84563482914714</v>
+        <v>31.96986471542466</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.84563482914714</v>
+        <v>40.75482469462413</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>42.84563482914714</v>
+        <v>11.63488398280613</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.84563482914714</v>
+        <v>23.97375834911016</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.84563482914714</v>
+        <v>29.4646057267823</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>42.84563482914714</v>
+        <v>26.25901423283115</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.84563482914714</v>
+        <v>30.8229544434683</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.84563482914714</v>
+        <v>34.46034246406289</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>42.84563482914714</v>
+        <v>41.63368409611208</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.84563482914714</v>
+        <v>48.13649164933413</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.84563482914714</v>
+        <v>52.04275802808975</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.84563482914714</v>
+        <v>23.43763164351328</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>42.84563482914714</v>
+        <v>43.35588610472776</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>42.84563482914714</v>
+        <v>49.65715233556394</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.84563482914714</v>
+        <v>-6.94781598113677</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.84563482914714</v>
+        <v>37.86330172259632</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>42.84563482914714</v>
+        <v>46.65037681740723</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.84563482914714</v>
+        <v>17.52265303114264</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.84563482914714</v>
+        <v>29.86449121181609</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.84563482914714</v>
+        <v>35.35668176667214</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.84563482914714</v>
+        <v>32.15085672084315</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.84563482914714</v>
+        <v>36.71694800179849</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.84563482914714</v>
+        <v>40.3554011865328</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.84563482914714</v>
+        <v>47.5289360811981</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.84563482914714</v>
+        <v>54.03286469942925</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>42.84563482914714</v>
+        <v>57.94010452704954</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.84563482914714</v>
+        <v>29.33192936751045</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.84563482914714</v>
+        <v>49.25354432241632</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.84563482914714</v>
+        <v>55.55643797434705</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>42.84563482914714</v>
+        <v>7.052745509754189</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.84563482914714</v>
+        <v>51.86376063162648</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.84563482914714</v>
+        <v>60.65079808848402</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.84563482914714</v>
+        <v>31.52658426028059</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.84563482914714</v>
+        <v>43.86883504516943</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.84563482914714</v>
+        <v>49.36135767369247</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>42.84563482914714</v>
+        <v>46.15571080788159</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.84563482914714</v>
+        <v>50.72227042789537</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.84563482914714</v>
+        <v>54.36099210637617</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.84563482914714</v>
+        <v>61.53779401682728</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>42.84563482914714</v>
+        <v>68.0418273568708</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>42.84563482914714</v>
+        <v>71.9492183287809</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>42.84563482914714</v>
+        <v>43.34041759308941</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>42.84563482914714</v>
+        <v>63.26236030451749</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>42.84563482914714</v>
+        <v>69.56547864138675</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-15.30158781317191</v>
+        <v>-15.30158781310938</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.50419764529029</v>
+        <v>29.50419764532462</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>38.2892310751176</v>
+        <v>38.28923107516012</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.169806640590949</v>
+        <v>9.169806640664049</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.50822119044626</v>
+        <v>21.50822119047093</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.99917799380155</v>
+        <v>26.99917799380655</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.79364524294415</v>
+        <v>23.79364524294506</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.35723802432922</v>
+        <v>28.3572380243008</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.99470888932701</v>
+        <v>31.9947088893352</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.1680971678323</v>
+        <v>39.16809716792575</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45.67072018704933</v>
+        <v>45.67072018701113</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>49.57711029714297</v>
+        <v>49.57711029709226</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.97265592768413</v>
+        <v>20.97265592770971</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>40.89034366191386</v>
+        <v>40.8903436619017</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.19171046799143</v>
+        <v>47.19171046797051</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-9.410872488409083</v>
+        <v>-9.410872488439324</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.39942527433205</v>
+        <v>35.39942527429749</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.18657385730781</v>
+        <v>44.18657385738079</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.05936649403175</v>
+        <v>15.0593664940488</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.40074483711778</v>
+        <v>27.40074483713393</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.89304485185058</v>
+        <v>32.89304485186945</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.68727851689796</v>
+        <v>29.6872785168385</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.2530223565479</v>
+        <v>34.25302235652073</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37.89155842004898</v>
+        <v>37.8915584200292</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>45.06513988849493</v>
+        <v>45.06513988853506</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.56888396406585</v>
+        <v>51.56888396412144</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.47624754636588</v>
+        <v>55.47624754633826</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.86874431953932</v>
+        <v>26.86874431950294</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.78979251811991</v>
+        <v>46.78979251813128</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.092786785309</v>
+        <v>53.09278678530946</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.590098607802886</v>
+        <v>4.590098607743201</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.40029380122992</v>
+        <v>49.40029380127642</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58.18740473954661</v>
+        <v>58.18740473953694</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.06370736709626</v>
+        <v>29.06370736705863</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.40549830939933</v>
+        <v>41.40549830940468</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.89813039104293</v>
+        <v>46.89813039109045</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.69254223764115</v>
+        <v>43.69254223764047</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.2587544097798</v>
+        <v>48.25875440978571</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.89755896257289</v>
+        <v>51.89755896252309</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.07440744323067</v>
+        <v>59.0744074432143</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>65.57825623543404</v>
+        <v>65.57825623543097</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>69.48577096056029</v>
+        <v>69.48577096055506</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.87764214754777</v>
+        <v>40.87764214758984</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60.79901810191082</v>
+        <v>60.79901810190343</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>67.1022370472004</v>
+        <v>67.10223704717164</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-15.93122567178686</v>
+        <v>-15.93122567179573</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.87502718881917</v>
+        <v>28.87502718887124</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.65966558384635</v>
+        <v>37.65966558385158</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.53998251106016</v>
+        <v>8.539982511064139</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.87878935140778</v>
+        <v>20.87878935135446</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.36939568822795</v>
+        <v>26.3693956882516</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.16384757985152</v>
+        <v>23.16384757983845</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.7278015937754</v>
+        <v>27.72780159376664</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.36500026474728</v>
+        <v>31.36500026475478</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.53840934240732</v>
+        <v>38.538409342413</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.04117098657419</v>
+        <v>45.04117098657464</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.94725172365106</v>
+        <v>48.94725172365061</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.34248833122588</v>
+        <v>20.34248833116483</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.26061962189551</v>
+        <v>40.26061962181832</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.5616138945647</v>
+        <v>46.56161389456152</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-10.0429491064978</v>
+        <v>-10.04294910636581</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.76781609271696</v>
+        <v>34.76781609274731</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.55456954695678</v>
+        <v>43.55456954701795</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.42710341626726</v>
+        <v>14.42710341627192</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.76887405197336</v>
+        <v>26.76887405195619</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.26082352856538</v>
+        <v>32.26082352851422</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.05504188956441</v>
+        <v>29.0550418895785</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.62114695556836</v>
+        <v>33.62114695550765</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.25941076444288</v>
+        <v>37.25941076446561</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>44.43301312953891</v>
+        <v>44.43301312956676</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.93689583366263</v>
+        <v>50.9368958337305</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>54.84394999254171</v>
+        <v>54.84394999258343</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.2361378939756</v>
+        <v>26.23613789393467</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.15762965686322</v>
+        <v>46.15762965688891</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>52.46025130825156</v>
+        <v>52.4602513082752</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.957631525333753</v>
+        <v>3.957631525359901</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.76829416416952</v>
+        <v>48.76829416417543</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>57.55500995918483</v>
+        <v>57.55500995912855</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.43105368441907</v>
+        <v>28.43105368437735</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.77323694201478</v>
+        <v>40.77323694200352</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.26551846935691</v>
+        <v>46.26551846937259</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.05991504426181</v>
+        <v>43.05991504423703</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.62648846150462</v>
+        <v>47.62648846145028</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.26502074516948</v>
+        <v>51.26502074514947</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>58.44189004792072</v>
+        <v>58.44189004791788</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.94587747522367</v>
+        <v>64.94587747522219</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>68.85308276642338</v>
+        <v>68.85308276641781</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>40.24464509527611</v>
+        <v>40.2446450952602</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.16646463321645</v>
+        <v>60.16646463315472</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>66.46931094612565</v>
+        <v>66.46931094606983</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-16.14064066799135</v>
+        <v>-16.1406406679868</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.6656503243956</v>
+        <v>28.66565032441129</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.45027151428208</v>
+        <v>37.4502715142889</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.330602411061435</v>
+        <v>8.330602411112821</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.66939188514114</v>
+        <v>20.66939188514864</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.15998248678234</v>
+        <v>26.15998248685487</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.95449336501709</v>
+        <v>22.95449336499367</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.51842025248637</v>
+        <v>27.51842025252525</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.15560880208768</v>
+        <v>31.15560880205335</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.32914148596974</v>
+        <v>38.32914148599066</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.83189929451801</v>
+        <v>44.83189929452529</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.73795971566479</v>
+        <v>48.73795971565205</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.1332137819041</v>
+        <v>20.13321378182236</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.05133746886948</v>
+        <v>40.05133746889688</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.35231622301735</v>
+        <v>46.35231622302145</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-10.25188468409731</v>
+        <v>-10.25188468410344</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.55891866977488</v>
+        <v>34.5589186698008</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.34565490734754</v>
+        <v>43.34565490741757</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.21820278208573</v>
+        <v>14.21820278203161</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.55995606679001</v>
+        <v>26.55995606678137</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.05188979738314</v>
+        <v>32.0518897973122</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.84616715903969</v>
+        <v>28.84616715899013</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.41224511157482</v>
+        <v>33.41224511158255</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.05049878893915</v>
+        <v>37.05049878901532</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.22422475629556</v>
+        <v>44.22422475633205</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.72810362799733</v>
+        <v>50.72810362804292</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.63513746467238</v>
+        <v>54.63513746467602</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.02734280565376</v>
+        <v>26.02734280558498</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.94882698331919</v>
+        <v>45.94882698333568</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.25143310412928</v>
+        <v>52.25143310411086</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3.748807115156367</v>
+        <v>3.748807115125558</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>48.55950791027074</v>
+        <v>48.55950791030587</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.34620649233257</v>
+        <v>57.34620649228027</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.22226424488538</v>
+        <v>28.22226424483945</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.56443015075986</v>
+        <v>40.56443015079306</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.05669593717353</v>
+        <v>46.05669593716011</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.85115150635677</v>
+        <v>42.85115150632767</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.41769780983061</v>
+        <v>47.4176978098579</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.0562199662174</v>
+        <v>51.05621996619193</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>58.23321287093275</v>
+        <v>58.23321287083463</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.73719646822424</v>
+        <v>64.73719646818127</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>68.64438143825426</v>
+        <v>68.64438143831667</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.03596120293828</v>
+        <v>40.03596120289917</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>59.95777315545133</v>
+        <v>59.95777315540074</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.26060394246311</v>
+        <v>66.26060394238864</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-21.59145466988325</v>
+        <v>-21.591454669843</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.21398121065018</v>
+        <v>23.21398121064313</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.99887302222142</v>
+        <v>31.99887302223847</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.87929085884555</v>
+        <v>2.879290858888297</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.2174800099336</v>
+        <v>15.21748000994451</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.70829103128808</v>
+        <v>20.70829103134129</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>17.50289646479924</v>
+        <v>17.50289646479992</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.06632117223189</v>
+        <v>22.06632117224531</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.70366318272018</v>
+        <v>25.70366318274155</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.87728261897423</v>
+        <v>32.87728261891068</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.37980666590529</v>
+        <v>39.37980666590336</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.28612323770581</v>
+        <v>43.28612323775788</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>14.68213213710096</v>
+        <v>14.68213213709926</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.59955807053412</v>
+        <v>34.59955807051058</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40.90077095114175</v>
+        <v>40.90077095121474</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-15.70146877682252</v>
+        <v>-15.70146877680058</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.10847937709885</v>
+        <v>29.10847937713898</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.89548631706062</v>
+        <v>37.89548631707949</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.768121256155794</v>
+        <v>8.768121256133966</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.10927417287049</v>
+        <v>21.10927417283956</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.60142838157749</v>
+        <v>26.60142838144834</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.39580024008622</v>
+        <v>23.39580024008667</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.96137597948912</v>
+        <v>27.96137597952232</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.59978316880866</v>
+        <v>31.59978316887437</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.77359584063363</v>
+        <v>38.77359584062135</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>45.27724092968863</v>
+        <v>45.27724092969795</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.18453096193748</v>
+        <v>49.18453096195567</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.57749105228443</v>
+        <v>20.57749105229409</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.49827741867632</v>
+        <v>40.49827741871646</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.80111773549761</v>
+        <v>46.80111773550853</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1.700295632189565</v>
+        <v>-1.700295632183995</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.10954996226867</v>
+        <v>43.10954996228516</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.89651925640142</v>
+        <v>51.8965192563705</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.77266415472987</v>
+        <v>22.77266415469542</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.11422967391782</v>
+        <v>35.11422967389952</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.6067159445076</v>
+        <v>40.60671594455171</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.40126600280412</v>
+        <v>37.40126600282811</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.967310077042</v>
+        <v>41.96731007705689</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.60598575017794</v>
+        <v>45.60598575016725</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>52.78306540394699</v>
+        <v>52.78306540398712</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.28681520964297</v>
+        <v>59.28681520963217</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>63.19425637992624</v>
+        <v>63.19425637983666</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.58659087071824</v>
+        <v>34.58659087072188</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.5077049981323</v>
+        <v>54.50770499812366</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.81076998846306</v>
+        <v>60.81076998846875</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-9.874605458489938</v>
+        <v>-9.874605458521998</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.93133526064771</v>
+        <v>34.93133526068205</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.71612507740242</v>
+        <v>43.71612507743767</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.59691314612367</v>
+        <v>14.59691314606034</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.93559239409826</v>
+        <v>26.93559239409565</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.42631242738635</v>
+        <v>32.42631242741318</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.22093604777747</v>
+        <v>29.22093604777656</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.78480609280059</v>
+        <v>33.78480609276126</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.4220787125043</v>
+        <v>37.42207871251249</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>44.59550057395775</v>
+        <v>44.59550057399481</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.09820277561887</v>
+        <v>51.09820277558613</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.00447847467497</v>
+        <v>55.00447847460437</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.39985211717062</v>
+        <v>26.39985211719984</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.3178079996696</v>
+        <v>46.31780799963379</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>52.61892589185204</v>
+        <v>52.61892589181839</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-3.983249570036648</v>
+        <v>-3.983249570066889</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.82720345359822</v>
+        <v>40.82720345360003</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.61410836689625</v>
+        <v>49.61410836694559</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.4871136587919</v>
+        <v>20.48711365870709</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.82875670232188</v>
+        <v>32.82875670230528</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.32081989227773</v>
+        <v>38.32081989228023</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.11520996587747</v>
+        <v>35.11520996583256</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.68123107201218</v>
+        <v>39.68123107198865</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>43.31956884444249</v>
+        <v>43.31956884437359</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>50.49318393197991</v>
+        <v>50.49318393201641</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>56.99700718610082</v>
+        <v>56.99700718612355</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>60.9042563336853</v>
+        <v>60.90425633371224</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.29658117217498</v>
+        <v>32.29658117219863</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>52.21789752106754</v>
+        <v>52.21789752104799</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>58.52064281678675</v>
+        <v>58.52064281677322</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10.01719834938895</v>
+        <v>10.01719834934563</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>54.82754877936425</v>
+        <v>54.82754877935061</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>63.61441605751482</v>
+        <v>63.6144160574906</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.49093129984733</v>
+        <v>34.49093129982425</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.8329869251066</v>
+        <v>46.83298692511194</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.32538218356849</v>
+        <v>52.32538218356144</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49.11995043587417</v>
+        <v>49.1199504358935</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.68643985640774</v>
+        <v>53.68643985641184</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.3250461176827</v>
+        <v>57.32504611773284</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>64.50192820239245</v>
+        <v>64.50192820240336</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>71.00585616885992</v>
+        <v>71.00585616886777</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>74.91325645343382</v>
+        <v>74.91325645331945</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.3049557249861</v>
+        <v>46.30495572496632</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.22659980772956</v>
+        <v>66.22659980771489</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>72.52956978487084</v>
+        <v>72.52956978488028</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-8.745229956561658</v>
+        <v>-8.745229956521413</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.05932797499754</v>
+        <v>36.05932797503074</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>44.84335194546425</v>
+        <v>44.84335194547403</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>15.72535294808547</v>
+        <v>15.72535294806023</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.06389281278355</v>
+        <v>28.0638928128479</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.55404265076272</v>
+        <v>33.55404265073203</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.34885317873143</v>
+        <v>30.34885317866515</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.91288167537625</v>
+        <v>34.91288167541275</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.54973163348036</v>
+        <v>38.54973163345785</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.72292096552299</v>
+        <v>45.72292096548149</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.2254945730959</v>
+        <v>52.22549457312194</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.13134055742223</v>
+        <v>56.13134055741052</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.52753855464432</v>
+        <v>27.5275385546134</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.44510356041935</v>
+        <v>47.4451035603998</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>53.74558932627743</v>
+        <v>53.74558932621854</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-2.854172885314526</v>
+        <v>-2.854172885292698</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>41.95489722325119</v>
+        <v>41.9548972232587</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.74103611685946</v>
+        <v>50.74103611676897</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.61525464564677</v>
+        <v>21.615254645608</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.95675822091137</v>
+        <v>33.95675822092558</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>39.44825109285439</v>
+        <v>39.44825109280164</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.24282815643353</v>
+        <v>36.24282815643365</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.8090076485267</v>
+        <v>40.80900764859616</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.44692266270881</v>
+        <v>44.44692266274178</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>51.62030526293638</v>
+        <v>51.62030526292763</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.12399989096532</v>
+        <v>58.1239998909635</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>62.03081924042142</v>
+        <v>62.03081924046701</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.42396864272264</v>
+        <v>33.42396864269502</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.34489401753463</v>
+        <v>53.3448940174854</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>59.64700704537991</v>
+        <v>59.64700704534853</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.14543764167611</v>
+        <v>11.14543764171476</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>55.95440516507081</v>
+        <v>55.95440516515914</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>64.74050641140191</v>
+        <v>64.74050641144704</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.61823463216997</v>
+        <v>35.61823463206549</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.96015079164836</v>
+        <v>47.96015079163074</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>53.45197570260866</v>
+        <v>53.45197570260571</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>50.24673097001023</v>
+        <v>50.2467309700548</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>54.8133787706317</v>
+        <v>54.81337877065933</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>58.4515622490796</v>
+        <v>58.45156224910995</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>65.62821164967768</v>
+        <v>65.62821164972236</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>72.13201098879138</v>
+        <v>72.1320109888248</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>76.03898145939839</v>
+        <v>76.03898145941373</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>47.43150534815523</v>
+        <v>47.43150534815</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>67.35275845684949</v>
+        <v>67.35275845685096</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>73.65509614096716</v>
+        <v>73.65509614095954</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-20.06371552916475</v>
+        <v>-20.0637155291718</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.74061061559787</v>
+        <v>24.74061061562379</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.52516761098509</v>
+        <v>33.52516761102216</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.406605845837092</v>
+        <v>4.406605845786387</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.74457972839703</v>
+        <v>16.74457972844137</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.23528807021781</v>
+        <v>22.23528807017438</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.02979692114407</v>
+        <v>19.02979692114873</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.59320602444116</v>
+        <v>23.59320602442854</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.23053267264545</v>
+        <v>27.23053267260475</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.40367266727442</v>
+        <v>34.40367266729477</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>40.90608018435098</v>
+        <v>40.90608018431153</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>44.81219177195108</v>
+        <v>44.81219177193198</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.20877655141665</v>
+        <v>16.20877655138027</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.12578493450708</v>
+        <v>36.12578493449844</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.42684949453151</v>
+        <v>42.42684949461086</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-14.17334053350014</v>
+        <v>-14.17334053339464</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.63549783046047</v>
+        <v>30.63549783046251</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>39.42216987328443</v>
+        <v>39.42216987336492</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.29582531866056</v>
+        <v>10.29582531857632</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.63676293423516</v>
+        <v>22.63676293420026</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.12881443183933</v>
+        <v>28.12881443174292</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.92308973290717</v>
+        <v>24.92308973283998</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.48864984892755</v>
+        <v>29.48864984884968</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.12704165694136</v>
+        <v>33.12704165697069</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.30037482840562</v>
+        <v>40.30037482840778</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.80390338353682</v>
+        <v>46.80390338352056</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.71098839226484</v>
+        <v>50.71098839219572</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.10452440413424</v>
+        <v>22.10452440407023</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.02489318481976</v>
+        <v>42.02489318466685</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.32758513568292</v>
+        <v>48.3275851356354</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-0.1722955222401623</v>
+        <v>-0.1722955222706304</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.63644031854615</v>
+        <v>44.63644031855115</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>53.42307468443228</v>
+        <v>53.4230746844391</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.30023993345522</v>
+        <v>24.30023993343441</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.64159017838365</v>
+        <v>36.64159017843333</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.13397370461321</v>
+        <v>42.13397370463936</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.92842722339147</v>
+        <v>38.92842722340693</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.49445569490781</v>
+        <v>43.49445569498285</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.13311596062131</v>
+        <v>47.13311596067133</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.30971596734805</v>
+        <v>54.3097159673252</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>60.81334924855794</v>
+        <v>60.81334924854771</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>64.72058538390793</v>
+        <v>64.7205853838869</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.11349582321436</v>
+        <v>36.11349582320004</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.03419239466014</v>
+        <v>56.03419239459431</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>62.33710898618718</v>
+        <v>62.33710898612863</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-15.59682888157231</v>
+        <v>-15.5968288815523</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.20923476650815</v>
+        <v>29.20923476644494</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.99409060209878</v>
+        <v>37.99409060202147</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>8.874488185110138</v>
+        <v>8.874488185097178</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>21.21309196243949</v>
+        <v>21.21309196237651</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.70385619470126</v>
+        <v>26.70385619473286</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.49840510513373</v>
+        <v>23.49840510516488</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.06216854228883</v>
+        <v>28.06216854234545</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.69946968000927</v>
+        <v>31.69946968006771</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.87304357851072</v>
+        <v>38.87304357854357</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.37573440201295</v>
+        <v>45.37573440195668</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.28202505926488</v>
+        <v>49.28202505930513</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>20.67744039887391</v>
+        <v>20.6774403988647</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.59535739056248</v>
+        <v>40.59535739051144</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>46.89652375817032</v>
+        <v>46.89652375812985</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-9.706512977810959</v>
+        <v>-9.706512977712393</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.10406299058668</v>
+        <v>35.10406299062318</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>43.89103393966816</v>
+        <v>43.89103393967885</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.76364862672308</v>
+        <v>14.76364862661599</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.10521620417167</v>
+        <v>27.10521620415393</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.59732360655967</v>
+        <v>32.59732360655626</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.39163895706731</v>
+        <v>29.3916389571004</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.95755345578466</v>
+        <v>33.95755345581956</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.59591975676081</v>
+        <v>37.59591975683152</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.76968689896121</v>
+        <v>44.7696868989744</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>51.27349877826914</v>
+        <v>51.27349877830257</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>55.18076289038511</v>
+        <v>55.1807628904274</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.57312942571271</v>
+        <v>26.57312942573124</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>46.49440689031776</v>
+        <v>46.49440689035448</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>52.79720067646822</v>
+        <v>52.79720067647709</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.294240462568567</v>
+        <v>4.29424046259426</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>49.10471384736668</v>
+        <v>49.10471384731575</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>57.89164716004287</v>
+        <v>57.89164715999875</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.7677718092278</v>
+        <v>28.7677718091805</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.10975198032095</v>
+        <v>41.10975198037575</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.60219145139895</v>
+        <v>46.60219145137576</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.39668498943543</v>
+        <v>43.39668498945976</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.96306781459448</v>
+        <v>47.96306781464928</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.60170260409082</v>
+        <v>51.601702604192</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>58.77873674603377</v>
+        <v>58.77873674608641</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>65.28265334061582</v>
+        <v>65.28265334063379</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.19006859141298</v>
+        <v>69.1900685914763</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>40.58180954513325</v>
+        <v>40.58180954511529</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.50341475645048</v>
+        <v>60.50341475639614</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>66.80643322341821</v>
+        <v>66.80643322340912</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-3.651202585968733</v>
+        <v>-3.651202585977259</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>41.15452892710148</v>
+        <v>41.15452892706249</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>49.93883998858924</v>
+        <v>49.93883998855922</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.82073931667999</v>
+        <v>20.82073931657472</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.15968702676953</v>
+        <v>33.15968702671246</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.6500854580258</v>
+        <v>38.65008545795645</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.44461682964329</v>
+        <v>35.44461682960203</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.00885240569546</v>
+        <v>40.00885240564124</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.64589836185219</v>
+        <v>43.6458983617667</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>50.8191120361907</v>
+        <v>50.81911203620355</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>57.3218915698239</v>
+        <v>57.32189156988927</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>61.22784403588521</v>
+        <v>61.22784403589976</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.62315198178608</v>
+        <v>32.62315198178392</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>52.54130843733829</v>
+        <v>52.54130843733135</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>58.84205830316405</v>
+        <v>58.84205830310903</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.237615881107402</v>
+        <v>2.23761588110149</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>47.04785964299806</v>
+        <v>47.04785964305582</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>55.83428568439622</v>
+        <v>55.8342856844575</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.70840219531688</v>
+        <v>26.70840219525719</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.05031365578039</v>
+        <v>39.05031365576799</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.54205516594261</v>
+        <v>44.54205516601856</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.33635302323428</v>
+        <v>41.33635302323405</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>45.9027396239123</v>
+        <v>45.90273962393481</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>49.5408506736605</v>
+        <v>49.54085067373667</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.71425760876282</v>
+        <v>56.71425760875839</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.21815818544617</v>
+        <v>63.21815818552405</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>67.12508404236696</v>
+        <v>67.12508404238572</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.51734335577096</v>
+        <v>38.51734335583394</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.43886022961836</v>
+        <v>58.43886022956549</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>64.74123740828163</v>
+        <v>64.7412374082465</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.23724936407071</v>
+        <v>16.23724936407389</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>61.04739054134798</v>
+        <v>61.04739054137583</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>69.83377891626351</v>
+        <v>69.83377891636094</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.711405218302</v>
+        <v>40.71140521828438</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.053729272338</v>
+        <v>53.05372927234767</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>58.54580282008506</v>
+        <v>58.54580282008972</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>55.34027887568671</v>
+        <v>55.34027887565271</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>59.90713379653683</v>
+        <v>59.90713379659117</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.5455133100905</v>
+        <v>63.54551331011176</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.72218713068089</v>
+        <v>70.72218713069317</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.22619241884577</v>
+        <v>77.22619241886635</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>81.13326939778092</v>
+        <v>81.13326939782458</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>52.52490319974272</v>
+        <v>52.5249031997234</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>72.44674781564852</v>
+        <v>72.44674781568501</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>78.74934964380198</v>
+        <v>78.74934964382528</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-23.46853259875631</v>
+        <v>-23.46853259876893</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.33521742166438</v>
+        <v>21.33521742168791</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.11988150138741</v>
+        <v>30.11988150136308</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.000754413125676</v>
+        <v>1.000754413035637</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.33856105894445</v>
+        <v>13.33856105886737</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.8293318169312</v>
+        <v>18.82933181687845</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.62378986656923</v>
+        <v>15.62378986657389</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.18709703564123</v>
+        <v>20.18709703564384</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.82449385690229</v>
+        <v>23.82449385694345</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.99735039479272</v>
+        <v>30.99735039483626</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.49967131762794</v>
+        <v>37.49967131759668</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>41.40580394833314</v>
+        <v>41.40580394833837</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.80264951723707</v>
+        <v>12.80264951715147</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.7193752180071</v>
+        <v>32.71937521795537</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.02052788122928</v>
+        <v>39.02052788113743</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-17.57913900575447</v>
+        <v>-17.57913900575572</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.22912317618382</v>
+        <v>27.22912317615778</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.01590231343012</v>
+        <v>36.01590231345877</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.888992435122262</v>
+        <v>6.88899243507133</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.22976276793686</v>
+        <v>19.22976276799848</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.72187669451314</v>
+        <v>24.72187669446221</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.51610118763968</v>
+        <v>21.51610118767617</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.08155933642304</v>
+        <v>26.08155933646863</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.72002132008988</v>
+        <v>29.72002132007738</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.89307106797669</v>
+        <v>36.89307106794963</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>43.39651301460181</v>
+        <v>43.3965130145145</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.30361906253775</v>
+        <v>47.30361906246112</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>18.69741590843576</v>
+        <v>18.69741590846679</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.61750195839825</v>
+        <v>38.61750195836358</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.92028202001843</v>
+        <v>44.92028201999342</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-3.578375467985026</v>
+        <v>-3.578375467965017</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>41.22978418973487</v>
+        <v>41.22978418975306</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>50.01652566843468</v>
+        <v>50.01652566844196</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.8931255722285</v>
+        <v>20.89312557219473</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.23430852853456</v>
+        <v>33.23430852859356</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.72675449686604</v>
+        <v>38.72675449689559</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.52115718491412</v>
+        <v>35.52115718481282</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.08708368728487</v>
+        <v>40.08708368727316</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.72581413965413</v>
+        <v>43.72581413965709</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>50.9021307090547</v>
+        <v>50.90213070903469</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>57.40567738379907</v>
+        <v>57.40567738376224</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>61.31293456714805</v>
+        <v>61.31293456705664</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>32.70610583147386</v>
+        <v>32.70610583153946</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>52.62651966959557</v>
+        <v>52.62651966964457</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.9295243870467</v>
+        <v>58.9295243870675</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-14.86979146571052</v>
+        <v>-14.86979146565857</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.93532224419182</v>
+        <v>29.93532224418102</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>38.71970329963115</v>
+        <v>38.71970329968595</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.600400100594427</v>
+        <v>9.600400100569075</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.93888347091475</v>
+        <v>21.93888347088803</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.42926471646474</v>
+        <v>27.42926471646679</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.22400701675595</v>
+        <v>24.22400701677107</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.78783292258693</v>
+        <v>28.78783292261274</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.42486353306158</v>
+        <v>32.4248635330941</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>39.59808455317189</v>
+        <v>39.59808455321225</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>46.10067485427017</v>
+        <v>46.10067485424845</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>50.00664091865697</v>
+        <v>50.00664091863696</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.40255409743823</v>
+        <v>21.40255409731624</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.32016964305053</v>
+        <v>41.32016964307634</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.62093005487414</v>
+        <v>47.6209300548107</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-8.979856263693634</v>
+        <v>-8.979856263649637</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.82976970651903</v>
+        <v>35.82976970649186</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.61626576567956</v>
+        <v>44.6162657657032</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.48917982894598</v>
+        <v>15.48917982894029</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.83062694413373</v>
+        <v>27.83062694413941</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.32235129045803</v>
+        <v>33.32235129046008</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.1168600976725</v>
+        <v>30.1168600975853</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.68283702114009</v>
+        <v>34.68283702114589</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.3209327358572</v>
+        <v>38.32093273581172</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.49434705721315</v>
+        <v>45.49434705724407</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>51.99805839479355</v>
+        <v>51.99805839478718</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.9049978541246</v>
+        <v>55.9049978540955</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.29786236769401</v>
+        <v>27.29786236769037</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.21883832947442</v>
+        <v>47.21883832948352</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>53.52122607323209</v>
+        <v>53.52122607325209</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>5.02031179596527</v>
+        <v>5.02031179599642</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.82983520353567</v>
+        <v>49.82983520352498</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>58.61629361599167</v>
+        <v>58.6162936159994</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.49271743558309</v>
+        <v>29.49271743555933</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.83457715722064</v>
+        <v>41.83457715719528</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.32663355178961</v>
+        <v>47.32663355178325</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.12132057423442</v>
+        <v>44.12132057416962</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>48.68776583264771</v>
+        <v>48.6877658326775</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>52.32613001836144</v>
+        <v>52.32613001833529</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.50281120453822</v>
+        <v>59.50281120454368</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.00662726290575</v>
+        <v>66.0066272629203</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>69.91371785159352</v>
+        <v>69.91371785152667</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.30595680831227</v>
+        <v>41.30595680823951</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>61.22726053147206</v>
+        <v>61.22726053146114</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>67.52987293784618</v>
+        <v>67.52987293782617</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-24.61197060263946</v>
+        <v>-24.61197060261343</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.19263782648871</v>
+        <v>20.1926378264579</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.97714007987243</v>
+        <v>28.97714007992859</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.1422425240777301</v>
+        <v>-0.1422425241208174</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.19577280738129</v>
+        <v>12.19577280743097</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.68632884285439</v>
+        <v>17.68632884286212</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.48099834426451</v>
+        <v>14.4809983443633</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.04439082015149</v>
+        <v>19.04439082012364</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.68157744368428</v>
+        <v>22.6815774437152</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.85497024254046</v>
+        <v>29.85497024259003</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.35738945030353</v>
+        <v>36.35738945030967</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.26340808913979</v>
+        <v>40.26340808914433</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.65999226223887</v>
+        <v>11.65999226220852</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.57708989407281</v>
+        <v>31.57708989402654</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.87801975194562</v>
+        <v>37.87801975194402</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-18.72367396276745</v>
+        <v>-18.72367396272743</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.08544670588613</v>
+        <v>26.08544670597912</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.87206399191651</v>
+        <v>34.87206399206043</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>5.744898477883069</v>
+        <v>5.744898477777454</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>18.08587753221543</v>
+        <v>18.08587753217553</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.57777670256378</v>
+        <v>23.57777670255764</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.37221266718036</v>
+        <v>20.3722126672388</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.93775613982946</v>
+        <v>24.93775613989426</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.57600790027296</v>
+        <v>28.5760079003323</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.74959396631773</v>
+        <v>35.7495939663216</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.25313420627215</v>
+        <v>42.25313420618689</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.16012625153526</v>
+        <v>46.16012625151366</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.55366172583031</v>
+        <v>17.55366172577449</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.47411975010796</v>
+        <v>37.47411975008625</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.77667697589932</v>
+        <v>43.776676975885</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-4.722548501967182</v>
+        <v>-4.722548502004926</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.08646965283351</v>
+        <v>40.08646965282465</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.8730492661543</v>
+        <v>48.87304926624365</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>19.74939353704538</v>
+        <v>19.749393537009</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.09078522810258</v>
+        <v>32.09078522808984</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.58301643508157</v>
+        <v>37.58301643504747</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>34.37763062939241</v>
+        <v>34.37763062946563</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.9436424666422</v>
+        <v>38.94364246667494</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.58216268971042</v>
+        <v>42.58216268973042</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.75901558933965</v>
+        <v>49.75901558943811</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.26266055893673</v>
+        <v>56.26266055896254</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.16980373170493</v>
+        <v>60.16980373177167</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.56271360398257</v>
+        <v>31.56271360399712</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.48349942937223</v>
+        <v>51.48349942937587</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>57.78628130219268</v>
+        <v>57.78628130218927</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-28.47989051023391</v>
+        <v>-28.47989051020311</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.32333925753478</v>
+        <v>16.32333925751648</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.10763757540208</v>
+        <v>25.10763757540049</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4.011414217413332</v>
+        <v>-4.011414217462331</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.326134431946755</v>
+        <v>8.326134431952326</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.81652298387139</v>
+        <v>13.8165229838889</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.61133574500543</v>
+        <v>10.61133574505568</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.17448779623358</v>
+        <v>15.17448779621562</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.81155131700775</v>
+        <v>18.81155131704618</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.98477817725991</v>
+        <v>25.98477817733188</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>32.48697144167666</v>
+        <v>32.48697144165949</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.39290618756259</v>
+        <v>36.39290618757828</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.790459633248545</v>
+        <v>7.790459633207163</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.70686709323429</v>
+        <v>27.70686709316949</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.00762005715951</v>
+        <v>34.00762005716065</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-22.59101033716858</v>
+        <v>-22.59101033718723</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.21673156209711</v>
+        <v>22.21673156205186</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.00314487550254</v>
+        <v>31.00314487543319</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.876310405164602</v>
+        <v>1.876310405165512</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.21682270803065</v>
+        <v>14.21682270797471</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.70855437218138</v>
+        <v>19.70855437218297</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.50313360072194</v>
+        <v>16.50313360068374</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.06843659853924</v>
+        <v>21.06843659853355</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.70656523769931</v>
+        <v>24.70656523763451</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.87998535425091</v>
+        <v>31.87998535427683</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.38329962298435</v>
+        <v>38.38329962298845</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.29020775638897</v>
+        <v>42.29020775647264</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.68471254306901</v>
+        <v>13.68471254304423</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.60448031563597</v>
+        <v>33.60448031565416</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.90686061904508</v>
+        <v>39.90686061905349</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-8.590121427110304</v>
+        <v>-8.590121427100868</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.21751796665531</v>
+        <v>36.21751796666997</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>45.00389361671837</v>
+        <v>45.00389361674452</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.88056881923326</v>
+        <v>15.88056881919336</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.22149375160548</v>
+        <v>28.221493751599</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.71355744709054</v>
+        <v>33.71355744706575</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.5083149077047</v>
+        <v>30.50831490771402</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.07408626195929</v>
+        <v>35.07408626201432</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.71248335836977</v>
+        <v>38.71248335842297</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.88917021427126</v>
+        <v>45.88917021433186</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>52.39258921251833</v>
+        <v>52.39258921252026</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>56.29964847053505</v>
+        <v>56.29964847058791</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.69352765774916</v>
+        <v>27.69352765774563</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.61362322747682</v>
+        <v>47.61362322742055</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>53.91622817644379</v>
+        <v>53.91622817644311</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-17.45921660192043</v>
+        <v>-17.45921660184949</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.34684026862006</v>
+        <v>27.34684026862779</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.13188781685535</v>
+        <v>36.13188781683625</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.012154937217318</v>
+        <v>7.012154937197081</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.3505957346659</v>
+        <v>19.35059573463566</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.84154591359966</v>
+        <v>24.84154591359852</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.63605663604672</v>
+        <v>21.63605663599419</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.19962484703179</v>
+        <v>26.19962484707203</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.83708397739697</v>
+        <v>29.8370839773881</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.01061832872774</v>
+        <v>37.01061832872786</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.51326595459496</v>
+        <v>43.51326595460962</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.41964005238874</v>
+        <v>47.41964005239988</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.81510278533013</v>
+        <v>18.8151027853191</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.73286984347926</v>
+        <v>38.73286984349006</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>45.03423278458804</v>
+        <v>45.03423278453847</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-11.56960371732548</v>
+        <v>-11.56960371728148</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.2409654763389</v>
+        <v>33.24096547633901</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>42.02812817985087</v>
+        <v>42.02812817988702</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.90061227196311</v>
+        <v>12.90061227195061</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.24201686592933</v>
+        <v>25.2420168658643</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.73431025512168</v>
+        <v>30.7343102551492</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.52858739002984</v>
+        <v>27.52858739008657</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.09430665732027</v>
+        <v>32.09430665733699</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.73283098477255</v>
+        <v>35.73283098479961</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.90655856325129</v>
+        <v>42.90655856324265</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.41032724710517</v>
+        <v>49.41032724710949</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>53.31767481673383</v>
+        <v>53.31767481671973</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.71008871414752</v>
+        <v>24.7100887141042</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.63121624214996</v>
+        <v>44.63121624223761</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>50.93420664433843</v>
+        <v>50.93420664432001</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.431588580746691</v>
+        <v>2.431588580728729</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>47.24205521416555</v>
+        <v>47.24205521415281</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>56.02918026592359</v>
+        <v>56.02918026593041</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.90517436156422</v>
+        <v>26.90517436150419</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>39.24699156462187</v>
+        <v>39.24699156464028</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.73961701837875</v>
+        <v>44.73961701834283</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>41.53407234591255</v>
+        <v>41.53407234591687</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>46.10025995541714</v>
+        <v>46.10025995544648</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>49.73905276928868</v>
+        <v>49.73905276931528</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>56.91604736845564</v>
+        <v>56.91604736837731</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.4199207718146</v>
+        <v>63.41992077179619</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>67.3274194826168</v>
+        <v>67.32741948262192</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>38.71920778102238</v>
+        <v>38.71920778097167</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>58.64066307583865</v>
+        <v>58.64066307587525</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>64.94387815167393</v>
+        <v>64.943878151623</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-18.4750609319165</v>
+        <v>-18.47506093183931</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.32958856889759</v>
+        <v>26.3295885690505</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.11415218519501</v>
+        <v>35.11415218526049</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.994895238054781</v>
+        <v>5.994895238027723</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.33311123879453</v>
+        <v>18.33311123875087</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.82370466340326</v>
+        <v>23.8237046633521</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.61827079175471</v>
+        <v>20.61827079179689</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.18186753009157</v>
+        <v>25.18186753013829</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.8190916853243</v>
+        <v>28.81909168535294</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.9921770500559</v>
+        <v>35.99217705005999</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.49466143904051</v>
+        <v>42.49466143903255</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>46.40070912300003</v>
+        <v>46.40070912294046</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.79698184481727</v>
+        <v>17.79698184481215</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.71425600703374</v>
+        <v>37.71425600706227</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>44.01523556237017</v>
+        <v>44.01523556234538</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-12.58684556069265</v>
+        <v>-12.58684556063695</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.22231614605103</v>
+        <v>32.22231614609059</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.00899479796517</v>
+        <v>41.00899479809409</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>11.88195499106423</v>
+        <v>11.88195499109379</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.22313469439287</v>
+        <v>24.22313469440287</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.71507125518379</v>
+        <v>29.71507125523699</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.50940384537246</v>
+        <v>26.50940384541146</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.07515156957091</v>
+        <v>31.075151569531</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.71344085843062</v>
+        <v>34.7134408584745</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.88671950047519</v>
+        <v>41.88671950049805</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.39032491484723</v>
+        <v>48.39032491482642</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.29734600600018</v>
+        <v>52.29734600598472</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.69057006317173</v>
+        <v>23.69057006319754</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.61120459659794</v>
+        <v>43.61120459656009</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>49.91381151918195</v>
+        <v>49.91381151912533</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1.413552355271648</v>
+        <v>1.413552355323716</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.22261151956293</v>
+        <v>46.22261151959681</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.00925251599581</v>
+        <v>55.00925251606812</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.88572248840133</v>
+        <v>25.88572248834119</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.22731480760554</v>
+        <v>38.22731480765476</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.71958341475006</v>
+        <v>43.71958341471596</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.51409420734997</v>
+        <v>40.51409420737248</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.08031027850855</v>
+        <v>45.08031027852924</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>48.71886803834418</v>
+        <v>48.71886803835601</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.89541353444049</v>
+        <v>55.89541353450677</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>62.39912367418601</v>
+        <v>62.39912367418567</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>66.30629589821508</v>
+        <v>66.3062958981961</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>37.69889437943387</v>
+        <v>37.69889437941249</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.61985668861662</v>
+        <v>57.61985668861526</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>63.92268827080291</v>
+        <v>63.92268827080609</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-5.461900085797694</v>
+        <v>-5.461900085780528</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.34506263679528</v>
+        <v>39.34506263681381</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.13003200532371</v>
+        <v>48.13003200530689</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.01065479498216</v>
+        <v>19.01065479494726</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.34972396532653</v>
+        <v>31.34972396529618</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.84057738241263</v>
+        <v>36.84057738240263</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.63501721783048</v>
+        <v>33.63501721792609</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.19910956742622</v>
+        <v>38.19910956740951</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.83648386833438</v>
+        <v>41.83648386834984</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.00991562258521</v>
+        <v>49.00991562260295</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.51281246974789</v>
+        <v>55.512812469758</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>59.4191456428634</v>
+        <v>59.41914564290694</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.81375845888813</v>
+        <v>30.81375845886141</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.73226155154005</v>
+        <v>50.73226155153857</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>57.0335271541331</v>
+        <v>57.0335271541713</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.4280552988621622</v>
+        <v>0.4280552987791708</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.2395303879576</v>
+        <v>45.23953038798739</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>54.02661489339648</v>
+        <v>54.02661489343946</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.8994546711843</v>
+        <v>24.89945467114019</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.24148767327399</v>
+        <v>37.24148767322897</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.73368427685359</v>
+        <v>42.73368427674991</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>39.5278905352986</v>
+        <v>39.5278905354099</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.09413396984083</v>
+        <v>44.09413396987573</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>47.73257344987265</v>
+        <v>47.73257344987447</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>54.90619843597524</v>
+        <v>54.90619843596888</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.4102163552969</v>
+        <v>61.41021635528723</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>65.31752299525824</v>
+        <v>65.31752299512227</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.7090869917284</v>
+        <v>36.70908699174375</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.63095059280893</v>
+        <v>56.63095059277641</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>62.93384363443484</v>
+        <v>62.93384363439289</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.42850269010712</v>
+        <v>14.42850269005187</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>59.23987518225393</v>
+        <v>59.23987518223062</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>68.02692204268006</v>
+        <v>68.02692204273542</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.90327182868175</v>
+        <v>38.90327182863923</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>51.24571742158635</v>
+        <v>51.24571742147403</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>56.73824609229742</v>
+        <v>56.73824609223637</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.53263053076644</v>
+        <v>53.53263053073438</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>58.09934228989194</v>
+        <v>58.09934228989046</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.73805025800387</v>
+        <v>61.73805025792645</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.91494230097267</v>
+        <v>68.91494230095823</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.41906493364475</v>
+        <v>75.41906493364861</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.3265227101884</v>
+        <v>79.32652271019215</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>50.71746114580056</v>
+        <v>50.71746114580351</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>70.63965248741324</v>
+        <v>70.63965248738675</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>76.94277020646378</v>
+        <v>76.94277020644275</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-12.48675177588102</v>
+        <v>-12.4867517758809</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.31839111743666</v>
+        <v>32.31839111738971</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>41.10317401233415</v>
+        <v>41.10317401239486</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>11.98441342907149</v>
+        <v>11.98441342901431</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.32272519010981</v>
+        <v>24.32272519009082</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.81346838910527</v>
+        <v>29.81346838903319</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.60810171710882</v>
+        <v>26.60810171710405</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.17172052826227</v>
+        <v>31.1717205282775</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.80902120359538</v>
+        <v>34.80902120362562</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>41.98238395821063</v>
+        <v>41.98238395819449</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>48.48492410781996</v>
+        <v>48.48492410784907</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>52.39119974660589</v>
+        <v>52.39119974661476</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.78715935635928</v>
+        <v>23.78715935630699</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.70463009561077</v>
+        <v>43.70463009562827</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>50.00576676558622</v>
+        <v>50.00576676558553</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-6.596499665692292</v>
+        <v>-6.596499665629764</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.21315543739895</v>
+        <v>38.21315543745398</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>47.00005342271056</v>
+        <v>47.0000534227233</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.87351010417008</v>
+        <v>17.87351010414473</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.2147855940312</v>
+        <v>30.21478559409657</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.70687195037404</v>
+        <v>35.70687195037085</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.50127171151458</v>
+        <v>32.50127171159927</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.06704153141909</v>
+        <v>37.06704153152062</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.70540736033168</v>
+        <v>40.70540736044082</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.87896333892782</v>
+        <v>47.87896333901229</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>54.38262451465103</v>
+        <v>54.38262451462045</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>58.28987359906371</v>
+        <v>58.28987359906326</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.68278445102108</v>
+        <v>29.6827844510528</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.60361558092821</v>
+        <v>49.60361558098312</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.90637965321237</v>
+        <v>55.90637965326353</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>7.403920982134153</v>
+        <v>7.403920982138018</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.21347350218066</v>
+        <v>52.21347350222136</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.00033384832166</v>
+        <v>61.0003338483818</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.87730046047325</v>
+        <v>31.87730046043698</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.21898852841612</v>
+        <v>44.21898852841032</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.71140694815263</v>
+        <v>49.71140694814831</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.50598488410886</v>
+        <v>46.50598488414057</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>51.07222301529153</v>
+        <v>51.07222301536463</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>54.71085732933678</v>
+        <v>54.71085732938782</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.88768027325064</v>
+        <v>61.88768027327656</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>68.39144616007873</v>
+        <v>68.39144616003917</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>72.29884638190897</v>
+        <v>72.29884638186896</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>43.69113166604525</v>
+        <v>43.69113166604093</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>63.612290530355</v>
+        <v>63.61229053040718</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>69.91527927937814</v>
+        <v>69.9152792794235</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-14.40282803541758</v>
+        <v>-14.40282803544157</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.40383157203628</v>
+        <v>30.40383157203094</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>39.18880169553445</v>
+        <v>39.1888016956254</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>10.06863869359945</v>
+        <v>10.06863869357876</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.40749437929976</v>
+        <v>22.40749437928817</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.89835434597076</v>
+        <v>27.89835434599395</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.69277692286421</v>
+        <v>24.69277692282363</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.25668191862685</v>
+        <v>29.25668191863288</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.89408179981224</v>
+        <v>32.89408179977563</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.06745556642416</v>
+        <v>40.06745556640733</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>46.57026039417617</v>
+        <v>46.57026039416321</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>50.47652698470843</v>
+        <v>50.47652698469683</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.87140815626169</v>
+        <v>21.87140815623975</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.78965565878714</v>
+        <v>41.78965565878453</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>48.09093484835394</v>
+        <v>48.09093484834598</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-8.513931165106712</v>
+        <v>-8.513931165104552</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.29724081912782</v>
+        <v>36.29724081919706</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>45.08432606176343</v>
+        <v>45.08432606179458</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>15.95637994772387</v>
+        <v>15.95637994774127</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.29819945731101</v>
+        <v>28.29819945729453</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.79040260586562</v>
+        <v>33.7904026059493</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.58459163410915</v>
+        <v>30.58459163410289</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.15064770654097</v>
+        <v>35.15064770650925</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.78911275579317</v>
+        <v>38.78911275577202</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.96267979043826</v>
+        <v>45.96267979048078</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>52.46660568763203</v>
+        <v>52.46660568762657</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>56.37384572842718</v>
+        <v>56.37384572843071</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.76567811548973</v>
+        <v>27.76567811548769</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.68728612336015</v>
+        <v>47.68728612327534</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.99019273898939</v>
+        <v>53.99019273906465</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.486800075835234</v>
+        <v>5.48680007571609</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.29786948721296</v>
+        <v>50.29786948723047</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>59.08491708719107</v>
+        <v>59.08491708721415</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.96048093540806</v>
+        <v>29.96048093535724</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.30271305772597</v>
+        <v>42.30271305774063</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.79524827666746</v>
+        <v>47.79524827666451</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.58961549144529</v>
+        <v>44.58961549150611</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.15613991091023</v>
+        <v>49.15613991094172</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>52.79487345138791</v>
+        <v>52.79487345140565</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.97170750193671</v>
+        <v>59.97170750196592</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>66.47573812358731</v>
+        <v>66.47573812360606</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>70.38312930750051</v>
+        <v>70.38312930748948</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>41.77433610981218</v>
+        <v>41.77433610986141</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>61.69627188364207</v>
+        <v>61.69627188365048</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>67.99940317991611</v>
+        <v>67.99940317994078</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-19.47374169510435</v>
+        <v>-19.47374169501556</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.33057422661086</v>
+        <v>25.33057422656368</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.11533717190828</v>
+        <v>34.11533717186713</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4.996512397367795</v>
+        <v>4.996512397351765</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.33444712693752</v>
+        <v>17.3344471269274</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.82526672872878</v>
+        <v>22.82526672876993</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.61978476254929</v>
+        <v>19.61978476255679</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.18314926963906</v>
+        <v>24.1831492696427</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.82054197496173</v>
+        <v>27.82054197498424</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.99362497133662</v>
+        <v>34.9936249713913</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.49600750328564</v>
+        <v>41.49600750329508</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>45.40226903744697</v>
+        <v>45.40226903744106</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.79881011057974</v>
+        <v>16.79881011064909</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.71578140158131</v>
+        <v>36.71578140164702</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.01698037369302</v>
+        <v>43.01698037375873</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-13.58297409931838</v>
+        <v>-13.58297409925449</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.22585402853765</v>
+        <v>31.22585402861155</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.01273206035872</v>
+        <v>40.01273206036258</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.88612454533627</v>
+        <v>10.88612454533082</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.22702300176611</v>
+        <v>23.22702300185706</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.71918578404934</v>
+        <v>28.71918578410573</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.51347023672152</v>
+        <v>25.51347023683248</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.07898575534246</v>
+        <v>30.07898575536883</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.71744363574381</v>
+        <v>33.71744363573175</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.89071980825948</v>
+        <v>40.8907198082929</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.39422337520587</v>
+        <v>47.39422337519495</v>
       </c>
     </row>
     <row r="838">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.69495062751464</v>
+        <v>22.6949506275193</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.61528230916549</v>
+        <v>42.61528230913491</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.91810869999695</v>
+        <v>48.91810870000309</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>0.4178408395424213</v>
+        <v>0.4178408395716389</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.22656641568331</v>
+        <v>45.22656641574004</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>54.01340679971686</v>
+        <v>54.01340679968025</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.89030913897723</v>
+        <v>24.89030913893903</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.23162019919887</v>
+        <v>37.23162019916977</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.72411503227904</v>
+        <v>42.72411503223357</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.51857767182885</v>
+        <v>39.5185776717952</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.08456152505057</v>
+        <v>44.08456152506513</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>47.72328788010778</v>
+        <v>47.72328788008959</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.89983093826864</v>
+        <v>54.89983093827273</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.40343922414861</v>
+        <v>61.40343922414543</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>65.31082533688205</v>
+        <v>65.31082533686659</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.70369203662956</v>
+        <v>36.70369203668436</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.62435148226639</v>
+        <v>56.6243514822565</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.92740253756774</v>
+        <v>62.92740253765517</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-13.88175419573228</v>
+        <v>-13.88175419572046</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.92318608825151</v>
+        <v>30.92318608831154</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.70800518673032</v>
+        <v>39.70800518671963</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.58928510093934</v>
+        <v>10.58928510092501</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.92748718177627</v>
+        <v>22.9274871818363</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.41827345647967</v>
+        <v>28.41827345652128</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.21287302561684</v>
+        <v>25.212873025599</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.7764071676548</v>
+        <v>29.77640716763604</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.41374689947448</v>
+        <v>33.4137468994697</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.58707517564842</v>
+        <v>40.58707517557521</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.08957466231352</v>
+        <v>47.08957466218574</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>50.99586883434809</v>
+        <v>50.99586883430852</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.39197332698616</v>
+        <v>22.39197332696627</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.30930544367432</v>
+        <v>42.30930544366716</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>48.61048632553157</v>
+        <v>48.61048632545221</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-7.991650801376906</v>
+        <v>-7.991650801419084</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.81780167578354</v>
+        <v>36.8178016757616</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>45.60473587472093</v>
+        <v>45.60473587473912</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.47823304708398</v>
+        <v>16.47823304709136</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.81939884495849</v>
+        <v>28.81939884497679</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.31152828799436</v>
+        <v>34.31152828802756</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.1058942782566</v>
+        <v>31.10589427818259</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.67157942061574</v>
+        <v>35.67157942057788</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.30998431582061</v>
+        <v>39.30998431585449</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.48350580456345</v>
+        <v>46.48350580451797</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>52.987126314734</v>
+        <v>52.98712631471945</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>56.89439393615449</v>
+        <v>56.89439393610355</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.28744966686436</v>
+        <v>28.28744966687391</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.20814216156096</v>
+        <v>48.20814216155618</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.5109504570748</v>
+        <v>54.51095045709663</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>6.008856250378656</v>
+        <v>6.008856250314992</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>50.81820615051454</v>
+        <v>50.81820615056706</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>59.60510270915377</v>
+        <v>59.60510270917378</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.48210980926599</v>
+        <v>30.48210980927304</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.82368818787775</v>
+        <v>42.82368818785342</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.31614969353014</v>
+        <v>48.31614969349671</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>45.1106938584057</v>
+        <v>45.11069385843309</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>49.67684731453842</v>
+        <v>49.67684731453308</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>53.3155206944859</v>
+        <v>53.31552069450795</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>60.49230914063078</v>
+        <v>60.49230914066534</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>66.99603436283503</v>
+        <v>66.99603436279456</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>70.90345312263362</v>
+        <v>70.9034531225836</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.29588328268547</v>
+        <v>42.29588328267648</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.21690351542277</v>
+        <v>62.21690351535365</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.51993648675678</v>
+        <v>68.51993648677508</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-10.9237468765446</v>
+        <v>-10.92374687654448</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.88154215828918</v>
+        <v>33.88154215825746</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>42.66613992715948</v>
+        <v>42.66613992713992</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.54773125336972</v>
+        <v>13.54773125326945</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.88613523154079</v>
+        <v>25.8861352316422</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.37677640749344</v>
+        <v>31.3767764074566</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.17140856195051</v>
+        <v>28.17140856197985</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.73510918405914</v>
+        <v>32.73510918405209</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.37234873961616</v>
+        <v>36.37234873960342</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.54568021578162</v>
+        <v>43.54568021569067</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>50.04825115239574</v>
+        <v>50.04825115239301</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>53.95437461369166</v>
+        <v>53.95437461370894</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.3502078894647</v>
+        <v>25.35020788944674</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.26779240031085</v>
+        <v>45.26779240028834</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>51.56880602150564</v>
+        <v>51.56880602143993</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-5.034425935852639</v>
+        <v>-5.034425935818192</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>39.77537532860397</v>
+        <v>39.77537532858771</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>48.56208813289113</v>
+        <v>48.56208813292933</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.43589664364465</v>
+        <v>19.43589664354825</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.77726435931466</v>
+        <v>31.77726435931807</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.26924865580482</v>
+        <v>37.26924865576684</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>34.06364728073829</v>
+        <v>34.06364728072022</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.62949891308274</v>
+        <v>38.62949891311742</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.26780359394634</v>
+        <v>42.26780359394111</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.44132830928011</v>
+        <v>49.44132830928568</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.94502027262816</v>
+        <v>55.94502027261827</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>59.85211715363376</v>
+        <v>59.85211715358919</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.24490172073838</v>
+        <v>31.24490172078022</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.16584663115118</v>
+        <v>51.1658466311405</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>57.4684876118168</v>
+        <v>57.46848761182953</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>8.965926242180061</v>
+        <v>8.965926242144363</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>53.7756249430599</v>
+        <v>53.77562494304534</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>62.562300085063</v>
+        <v>62.56230008500502</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.43961847602709</v>
+        <v>33.4396184759723</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.78139879045325</v>
+        <v>45.78139879043961</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>51.27371513310409</v>
+        <v>51.27371513315457</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>48.06829195085284</v>
+        <v>48.06829195087751</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>52.63461191213783</v>
+        <v>52.63461191215886</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>56.27318506387776</v>
+        <v>56.27318506389686</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.44997670840867</v>
+        <v>63.44997670849598</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.95377338948511</v>
+        <v>69.95377338954525</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>73.86102140179555</v>
+        <v>73.86102140186468</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>45.253180413154</v>
+        <v>45.25318041310852</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>65.17445307904286</v>
+        <v>65.17445307905923</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>71.47731871672131</v>
+        <v>71.47731871672859</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-12.83674062974835</v>
+        <v>-12.83674062975744</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.96986471542466</v>
+        <v>31.96986471545013</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.75482469462413</v>
+        <v>40.75482469464596</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>11.63488398280613</v>
+        <v>11.63488398267368</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.97375834911016</v>
+        <v>23.973758349108</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.4646057267823</v>
+        <v>29.46460572678866</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.25901423283115</v>
+        <v>26.25901423286969</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.8229544434683</v>
+        <v>30.82295444349047</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.46034246406289</v>
+        <v>34.46034246410359</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.63368409611208</v>
+        <v>41.63368409612538</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>48.13649164933413</v>
+        <v>48.13649164935289</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>52.04275802808975</v>
+        <v>52.04275802808793</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>23.43763164351328</v>
+        <v>23.43763164348339</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.35588610472776</v>
+        <v>43.35588610469991</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>49.65715233556394</v>
+        <v>49.65715233546798</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-6.94781598113677</v>
+        <v>-6.947815981114715</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.86330172259632</v>
+        <v>37.86330172256039</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>46.65037681740723</v>
+        <v>46.65037681737859</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>17.52265303114264</v>
+        <v>17.52265303108466</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.86449121181609</v>
+        <v>29.86449121176516</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.35668176667214</v>
+        <v>35.35668176662143</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>32.15085672084315</v>
+        <v>32.15085672076914</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.71694800179849</v>
+        <v>36.71694800176176</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>40.3554011865328</v>
+        <v>40.35540118648096</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.5289360811981</v>
+        <v>47.52893608114</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.03286469942925</v>
+        <v>54.03286469934024</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>57.94010452704954</v>
+        <v>57.9401045269022</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.33192936751045</v>
+        <v>29.33192936750193</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.25354432241632</v>
+        <v>49.25354432237118</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>55.55643797434705</v>
+        <v>55.55643797429396</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.052745509754189</v>
+        <v>7.052745509688478</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>51.86376063162648</v>
+        <v>51.86376063157373</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>60.65079808848402</v>
+        <v>60.65079808848721</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.52658426028059</v>
+        <v>31.52658426023545</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.86883504516943</v>
+        <v>43.8688350451168</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>49.36135767369247</v>
+        <v>49.36135767368633</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>46.15571080788159</v>
+        <v>46.15571080783441</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.72227042789537</v>
+        <v>50.72227042781545</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>54.36099210637617</v>
+        <v>54.36099210634752</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>61.53779401682728</v>
+        <v>61.53779401678578</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.0418273568708</v>
+        <v>68.04182735677109</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>71.9492183287809</v>
+        <v>71.94921832874486</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>43.34041759308941</v>
+        <v>43.34041759303541</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>63.26236030451749</v>
+        <v>63.26236030446337</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>69.56547864138675</v>
+        <v>69.56547864135321</v>
       </c>
     </row>
   </sheetData>
